--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="129">
   <si>
     <t>NickName</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-11-07</t>
   </si>
 </sst>
 </file>
@@ -1514,11 +1517,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M396"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L342"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K353" sqref="K353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9975,7 +9978,7 @@
         <v>db.tournaments.update({_id: "128"},{$set: {year: 2014,date: ISODate("2014-10-31"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
       </c>
     </row>
-    <row r="337" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G337" t="s">
         <v>10</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>{ player_id: "Matteo", pos: 1, points: 312.5, money: 25, pay: 5},</v>
       </c>
     </row>
-    <row r="338" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="G338" t="s">
@@ -10027,7 +10030,7 @@
         <v>{ player_id: "Busca", pos: 2, points: 156.25, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="339" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="G339" t="s">
@@ -10054,7 +10057,7 @@
         <v>{ player_id: "Tiga", pos: 3, points: 104.12, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="340" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="G340" t="s">
@@ -10081,7 +10084,7 @@
         <v>{ player_id: "Cana", pos: 4, points: 78.12, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="341" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="G341" t="s">
@@ -10108,7 +10111,7 @@
         <v>{ player_id: "Stecca", pos: 5, points: 62.5, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="342" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L342" t="s">
         <v>108</v>
       </c>
@@ -10116,67 +10119,255 @@
         <v>109</v>
       </c>
     </row>
-    <row r="343" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="5"/>
-      <c r="C343" s="3"/>
-      <c r="D343" s="1"/>
-    </row>
-    <row r="345" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>129</v>
+      </c>
+      <c r="B343" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E343" s="4">
+        <v>1</v>
+      </c>
+      <c r="F343" s="4">
+        <v>0</v>
+      </c>
+      <c r="L343" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A343,",year: ",B343,",date: ISODate(""",C343,"""),details: {location: """,D343,""",tables: ",E343,",final: ",F343,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 129,year: 2014,date: ISODate("2014-11-07"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M343" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A343,"""},{$set: {year: ",B343,",date: ISODate(""",C343,"""),details: {location: """,D343,""",tables: ",E343,",final: ",F343,"},results: [")</f>
+        <v>db.tournaments.update({_id: "129"},{$set: {year: 2014,date: ISODate("2014-11-07"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G344" t="s">
+        <v>13</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>500</v>
+      </c>
+      <c r="J344">
+        <v>40</v>
+      </c>
+      <c r="K344">
+        <v>5</v>
+      </c>
+      <c r="L344" t="str">
+        <f t="shared" ref="L344:L351" si="58">CONCATENATE("{ player_id: """,G344,""", pos: ",H344,", points: ",I344,", money: ",J344,", pay: ",K344,"},")</f>
+        <v>{ player_id: "Ben", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+      <c r="M344" t="str">
+        <f t="shared" ref="M344:M351" si="59">CONCATENATE("{ player_id: """,G344,""", pos: ",H344,", points: ",I344,", money: ",J344,", pay: ",K344,"},")</f>
+        <v>{ player_id: "Ben", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-    </row>
-    <row r="346" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G345" t="s">
+        <v>6</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
+        <v>250</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>5</v>
+      </c>
+      <c r="L345" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Rico", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+      <c r="M345" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Rico", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-    </row>
-    <row r="347" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G346" t="s">
+        <v>3</v>
+      </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+      <c r="I346">
+        <v>166.62</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>5</v>
+      </c>
+      <c r="L346" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Vale", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M346" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Vale", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-    </row>
-    <row r="348" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G347" t="s">
+        <v>10</v>
+      </c>
+      <c r="H347">
+        <v>4</v>
+      </c>
+      <c r="I347">
+        <v>125</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>5</v>
+      </c>
+      <c r="L347" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M347" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-    </row>
-    <row r="349" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G348" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348">
+        <v>5</v>
+      </c>
+      <c r="I348">
+        <v>100</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>5</v>
+      </c>
+      <c r="L348" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Cana", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+      <c r="M348" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Cana", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="H349" t="s">
+      <c r="G349" t="s">
+        <v>2</v>
+      </c>
+      <c r="H349">
+        <v>6</v>
+      </c>
+      <c r="I349">
+        <v>83.31</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>5</v>
+      </c>
+      <c r="L349" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Tiga", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M349" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Tiga", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="G350" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350">
+        <v>7</v>
+      </c>
+      <c r="I350">
+        <v>71.37</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>5</v>
+      </c>
+      <c r="L350" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Pipps", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+      <c r="M350" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Pipps", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="G351" t="s">
         <v>12</v>
       </c>
-      <c r="I349">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="350" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H350" t="s">
-        <v>14</v>
-      </c>
-      <c r="I350">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="351" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="5"/>
-      <c r="C351" s="3"/>
-      <c r="D351" s="1"/>
-      <c r="H351" t="s">
-        <v>9</v>
+      <c r="H351">
+        <v>8</v>
       </c>
       <c r="I351">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="352" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H352" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I352">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>5</v>
+      </c>
+      <c r="L351" t="str">
+        <f t="shared" si="58"/>
+        <v>{ player_id: "Stecca", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M351" t="str">
+        <f t="shared" si="59"/>
+        <v>{ player_id: "Stecca", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L352" t="s">
+        <v>108</v>
+      </c>
+      <c r="M352" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
@@ -10202,14 +10393,14 @@
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="361" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="5"/>
-      <c r="C361" s="3"/>
-      <c r="D361" s="1"/>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="362" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="1"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
@@ -10231,60 +10422,84 @@
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="370" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="5"/>
-      <c r="C370" s="3"/>
-      <c r="D370" s="1"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C372" s="1"/>
-      <c r="D372" s="1"/>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+    </row>
+    <row r="371" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="1"/>
+    </row>
+    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H375" t="s">
+        <v>12</v>
+      </c>
+      <c r="I375">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H376" t="s">
+        <v>14</v>
+      </c>
+      <c r="I376">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H377" t="s">
+        <v>9</v>
+      </c>
+      <c r="I377">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-    </row>
-    <row r="380" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="5"/>
-      <c r="C380" s="3"/>
-      <c r="D380" s="1"/>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C382" s="1"/>
-      <c r="D382" s="1"/>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H378" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+    </row>
+    <row r="381" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="5"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="1"/>
+    </row>
+    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="385" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="5"/>
-      <c r="C385" s="3"/>
-      <c r="D385" s="1"/>
-    </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
+    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+    </row>
+    <row r="386" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="5"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="1"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
@@ -10298,14 +10513,14 @@
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="392" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="5"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="1"/>
-    </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+    </row>
+    <row r="393" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="5"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="1"/>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
@@ -10314,6 +10529,10 @@
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="130">
   <si>
     <t>NickName</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>2014-11-07</t>
+  </si>
+  <si>
+    <t>2014-11-14</t>
   </si>
 </sst>
 </file>
@@ -1517,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M397"/>
+  <dimension ref="A1:M394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K353" sqref="K353"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L353" sqref="L353:L359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10369,170 +10372,306 @@
         <v>109</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>130</v>
+      </c>
+      <c r="B353" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E353" s="4">
+        <v>1</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0</v>
+      </c>
+      <c r="L353" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A353,",year: ",B353,",date: ISODate(""",C353,"""),details: {location: """,D353,""",tables: ",E353,",final: ",F353,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 130,year: 2014,date: ISODate("2014-11-14"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M353" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A353,"""},{$set: {year: ",B353,",date: ISODate(""",C353,"""),details: {location: """,D353,""",tables: ",E353,",final: ",F353,"},results: [")</f>
+        <v>db.tournaments.update({_id: "130"},{$set: {year: 2014,date: ISODate("2014-11-14"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G354" t="s">
+        <v>2</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>362.5</v>
+      </c>
+      <c r="J354">
+        <v>25</v>
+      </c>
+      <c r="K354">
+        <v>5</v>
+      </c>
+      <c r="L354" t="str">
+        <f t="shared" ref="L354:L358" si="60">CONCATENATE("{ player_id: """,G354,""", pos: ",H354,", points: ",I354,", money: ",J354,", pay: ",K354,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 362.5, money: 25, pay: 5},</v>
+      </c>
+      <c r="M354" t="str">
+        <f t="shared" ref="M354:M358" si="61">CONCATENATE("{ player_id: """,G354,""", pos: ",H354,", points: ",I354,", money: ",J354,", pay: ",K354,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 362.5, money: 25, pay: 5},</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G355" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>181.25</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>5</v>
+      </c>
+      <c r="L355" t="str">
+        <f t="shared" si="60"/>
+        <v>{ player_id: "Cana", pos: 2, points: 181.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M355" t="str">
+        <f t="shared" si="61"/>
+        <v>{ player_id: "Cana", pos: 2, points: 181.25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>6</v>
+      </c>
+      <c r="H356">
+        <v>3</v>
+      </c>
+      <c r="I356">
+        <v>120.78</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>5</v>
+      </c>
+      <c r="L356" t="str">
+        <f t="shared" si="60"/>
+        <v>{ player_id: "Rico", pos: 3, points: 120.78, money: 0, pay: 5},</v>
+      </c>
+      <c r="M356" t="str">
+        <f t="shared" si="61"/>
+        <v>{ player_id: "Rico", pos: 3, points: 120.78, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G357" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357">
+        <v>4</v>
+      </c>
+      <c r="I357">
+        <v>90.62</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>5</v>
+      </c>
+      <c r="L357" t="str">
+        <f t="shared" si="60"/>
+        <v>{ player_id: "Pipps", pos: 4, points: 90.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M357" t="str">
+        <f t="shared" si="61"/>
+        <v>{ player_id: "Pipps", pos: 4, points: 90.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-    </row>
-    <row r="362" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="5"/>
-      <c r="C362" s="3"/>
+      <c r="G358" t="s">
+        <v>5</v>
+      </c>
+      <c r="H358">
+        <v>5</v>
+      </c>
+      <c r="I358">
+        <v>72.5</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>5</v>
+      </c>
+      <c r="L358" t="str">
+        <f t="shared" si="60"/>
+        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M358" t="str">
+        <f t="shared" si="61"/>
+        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L359" t="s">
+        <v>108</v>
+      </c>
+      <c r="M359" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C368" s="1"/>
+    <row r="368" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="C368" s="3"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C369" s="1"/>
-      <c r="D369" s="1"/>
-    </row>
-    <row r="371" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="5"/>
-      <c r="C371" s="3"/>
+    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C371" s="1"/>
       <c r="D371" s="1"/>
+    </row>
+    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+      <c r="I372">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="373" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+      <c r="I373">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="374" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
+      <c r="H374" t="s">
+        <v>9</v>
+      </c>
+      <c r="I374">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="375" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="H375" t="s">
-        <v>12</v>
+      <c r="H375" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I375">
-        <v>0.12</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="376" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="H376" t="s">
-        <v>14</v>
-      </c>
-      <c r="I376">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
-      <c r="H377" t="s">
-        <v>9</v>
-      </c>
-      <c r="I377">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C378" s="1"/>
+    </row>
+    <row r="378" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="5"/>
+      <c r="C378" s="3"/>
       <c r="D378" s="1"/>
-      <c r="H378" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I378">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C379" s="1"/>
-      <c r="D379" s="1"/>
-    </row>
-    <row r="381" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="5"/>
-      <c r="C381" s="3"/>
+    </row>
+    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C383" s="1"/>
+    <row r="383" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="5"/>
+      <c r="C383" s="3"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C384" s="1"/>
-      <c r="D384" s="1"/>
-    </row>
-    <row r="386" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="5"/>
-      <c r="C386" s="3"/>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C386" s="1"/>
       <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-    </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C390" s="1"/>
+    <row r="390" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="5"/>
+      <c r="C390" s="3"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-    </row>
-    <row r="393" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="5"/>
-      <c r="C393" s="3"/>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C395" s="1"/>
-      <c r="D395" s="1"/>
-    </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-    </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C397" s="1"/>
-      <c r="D397" s="1"/>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="131">
   <si>
     <t>NickName</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>2014-11-14</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
   </si>
 </sst>
 </file>
@@ -1522,9 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L353" sqref="L353:L359"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M360" sqref="M360:M368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10522,15 +10525,15 @@
         <v>0</v>
       </c>
       <c r="K358">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L358" t="str">
         <f t="shared" si="60"/>
-        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 5},</v>
+        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 10},</v>
       </c>
       <c r="M358" t="str">
         <f t="shared" si="61"/>
-        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 5},</v>
+        <v>{ player_id: "Suarez", pos: 5, points: 72.5, money: 0, pay: 10},</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -10541,34 +10544,230 @@
         <v>109</v>
       </c>
     </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>131</v>
+      </c>
+      <c r="B360" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E360" s="4">
+        <v>1</v>
+      </c>
+      <c r="F360" s="4">
+        <v>0</v>
+      </c>
+      <c r="L360" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A360,",year: ",B360,",date: ISODate(""",C360,"""),details: {location: """,D360,""",tables: ",E360,",final: ",F360,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 131,year: 2014,date: ISODate("2014-11-21"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M360" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A360,"""},{$set: {year: ",B360,",date: ISODate(""",C360,"""),details: {location: """,D360,""",tables: ",E360,",final: ",F360,"},results: [")</f>
+        <v>db.tournaments.update({_id: "131"},{$set: {year: 2014,date: ISODate("2014-11-21"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
+      <c r="G361" t="s">
+        <v>12</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>437.5</v>
+      </c>
+      <c r="J361">
+        <v>35</v>
+      </c>
+      <c r="K361">
+        <v>5</v>
+      </c>
+      <c r="L361" t="str">
+        <f t="shared" ref="L361:L366" si="62">CONCATENATE("{ player_id: """,G361,""", pos: ",H361,", points: ",I361,", money: ",J361,", pay: ",K361,"},")</f>
+        <v>{ player_id: "Stecca", pos: 1, points: 437.5, money: 35, pay: 5},</v>
+      </c>
+      <c r="M361" t="str">
+        <f t="shared" ref="M361:M366" si="63">CONCATENATE("{ player_id: """,G361,""", pos: ",H361,", points: ",I361,", money: ",J361,", pay: ",K361,"},")</f>
+        <v>{ player_id: "Stecca", pos: 1, points: 437.5, money: 35, pay: 5},</v>
+      </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
+      <c r="G362" t="s">
+        <v>8</v>
+      </c>
+      <c r="H362">
+        <v>2</v>
+      </c>
+      <c r="I362">
+        <v>218.75</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>5</v>
+      </c>
+      <c r="L362" t="str">
+        <f t="shared" si="62"/>
+        <v>{ player_id: "Cana", pos: 2, points: 218.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M362" t="str">
+        <f t="shared" si="63"/>
+        <v>{ player_id: "Cana", pos: 2, points: 218.75, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
+      <c r="G363" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
+        <v>145.81</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>5</v>
+      </c>
+      <c r="L363" t="str">
+        <f t="shared" si="62"/>
+        <v>{ player_id: "Nero", pos: 3, points: 145.81, money: 0, pay: 5},</v>
+      </c>
+      <c r="M363" t="str">
+        <f t="shared" si="63"/>
+        <v>{ player_id: "Nero", pos: 3, points: 145.81, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
+      <c r="G364" t="s">
+        <v>5</v>
+      </c>
+      <c r="H364">
+        <v>4</v>
+      </c>
+      <c r="I364">
+        <v>109.37</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>5</v>
+      </c>
+      <c r="L364" t="str">
+        <f t="shared" si="62"/>
+        <v>{ player_id: "Suarez", pos: 4, points: 109.37, money: 0, pay: 5},</v>
+      </c>
+      <c r="M364" t="str">
+        <f t="shared" si="63"/>
+        <v>{ player_id: "Suarez", pos: 4, points: 109.37, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
+      <c r="G365" t="s">
+        <v>2</v>
+      </c>
+      <c r="H365">
+        <v>5</v>
+      </c>
+      <c r="I365">
+        <v>87.5</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>5</v>
+      </c>
+      <c r="L365" t="str">
+        <f t="shared" si="62"/>
+        <v>{ player_id: "Tiga", pos: 5, points: 87.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M365" t="str">
+        <f t="shared" si="63"/>
+        <v>{ player_id: "Tiga", pos: 5, points: 87.5, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-    </row>
-    <row r="368" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="5"/>
-      <c r="C368" s="3"/>
+      <c r="G366" t="s">
+        <v>10</v>
+      </c>
+      <c r="H366">
+        <v>6</v>
+      </c>
+      <c r="I366">
+        <v>72.87</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>5</v>
+      </c>
+      <c r="L366" t="str">
+        <f t="shared" si="62"/>
+        <v>{ player_id: "Matteo", pos: 6, points: 72.87, money: 0, pay: 5},</v>
+      </c>
+      <c r="M366" t="str">
+        <f t="shared" si="63"/>
+        <v>{ player_id: "Matteo", pos: 6, points: 72.87, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="G367" t="s">
+        <v>6</v>
+      </c>
+      <c r="H367">
+        <v>7</v>
+      </c>
+      <c r="I367">
+        <v>62.5</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>5</v>
+      </c>
+      <c r="L367" t="str">
+        <f>CONCATENATE("{ player_id: """,G367,""", pos: ",H367,", points: ",I367,", money: ",J367,", pay: ",K367,"}")</f>
+        <v>{ player_id: "Rico", pos: 7, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M367" t="str">
+        <f>CONCATENATE("{ player_id: """,G367,""", pos: ",H367,", points: ",I367,", money: ",J367,", pay: ",K367,"}")</f>
+        <v>{ player_id: "Rico", pos: 7, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C368" s="1"/>
       <c r="D368" s="1"/>
+      <c r="L368" t="s">
+        <v>108</v>
+      </c>
+      <c r="M368" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="370" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="132">
   <si>
     <t>NickName</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>2014-11-21</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
   </si>
 </sst>
 </file>
@@ -1523,11 +1526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M394"/>
+  <dimension ref="A1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M360" sqref="M360:M368"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369:L376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10769,108 +10772,280 @@
         <v>109</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C370" s="1"/>
-      <c r="D370" s="1"/>
-    </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>132</v>
+      </c>
+      <c r="B369" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E369" s="4">
+        <v>1</v>
+      </c>
+      <c r="F369" s="4">
+        <v>0</v>
+      </c>
+      <c r="L369" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A369,",year: ",B369,",date: ISODate(""",C369,"""),details: {location: """,D369,""",tables: ",E369,",final: ",F369,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 132,year: 2014,date: ISODate("2014-11-28"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M369" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A369,"""},{$set: {year: ",B369,",date: ISODate(""",C369,"""),details: {location: """,D369,""",tables: ",E369,",final: ",F369,"},results: [")</f>
+        <v>db.tournaments.update({_id: "132"},{$set: {year: 2014,date: ISODate("2014-11-28"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G370" t="s">
+        <v>10</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>375</v>
+      </c>
+      <c r="J370">
+        <v>30</v>
+      </c>
+      <c r="K370">
+        <v>5</v>
+      </c>
+      <c r="L370" t="str">
+        <f>CONCATENATE("{ player_id: """,G370,""", pos: ",H370,", points: ",I370,", money: ",J370,", pay: ",K370,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+      <c r="M370" t="str">
+        <f t="shared" ref="M370:M374" si="64">CONCATENATE("{ player_id: """,G370,""", pos: ",H370,", points: ",I370,", money: ",J370,", pay: ",K370,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
-    </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G371" t="s">
+        <v>2</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>187.5</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>5</v>
+      </c>
+      <c r="L371" t="str">
+        <f>CONCATENATE("{ player_id: """,G371,""", pos: ",H371,", points: ",I371,", money: ",J371,", pay: ",K371,"},")</f>
+        <v>{ player_id: "Tiga", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M371" t="str">
+        <f t="shared" si="64"/>
+        <v>{ player_id: "Tiga", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="H372" t="s">
-        <v>12</v>
+      <c r="G372" t="s">
+        <v>5</v>
+      </c>
+      <c r="H372">
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>5</v>
+      </c>
+      <c r="L372" t="str">
+        <f>CONCATENATE("{ player_id: """,G372,""", pos: ",H372,", points: ",I372,", money: ",J372,", pay: ",K372,"},")</f>
+        <v>{ player_id: "Suarez", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M372" t="str">
+        <f t="shared" si="64"/>
+        <v>{ player_id: "Suarez", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="H373" t="s">
-        <v>14</v>
+      <c r="G373" t="s">
+        <v>12</v>
+      </c>
+      <c r="H373">
+        <v>4</v>
       </c>
       <c r="I373">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+        <v>93.75</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>5</v>
+      </c>
+      <c r="L373" t="str">
+        <f>CONCATENATE("{ player_id: """,G373,""", pos: ",H373,", points: ",I373,", money: ",J373,", pay: ",K373,"},")</f>
+        <v>{ player_id: "Stecca", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M373" t="str">
+        <f t="shared" si="64"/>
+        <v>{ player_id: "Stecca", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="H374" t="s">
-        <v>9</v>
+      <c r="G374" t="s">
+        <v>8</v>
+      </c>
+      <c r="H374">
+        <v>5</v>
       </c>
       <c r="I374">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>5</v>
+      </c>
+      <c r="L374" t="str">
+        <f>CONCATENATE("{ player_id: """,G374,""", pos: ",H374,", points: ",I374,", money: ",J374,", pay: ",K374,"},")</f>
+        <v>{ player_id: "Cana", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M374" t="str">
+        <f t="shared" si="64"/>
+        <v>{ player_id: "Cana", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="H375" s="4" t="s">
-        <v>2</v>
+      <c r="G375" t="s">
+        <v>11</v>
+      </c>
+      <c r="H375">
+        <v>6</v>
       </c>
       <c r="I375">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62.5</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>5</v>
+      </c>
+      <c r="L375" t="str">
+        <f>CONCATENATE("{ player_id: """,G375,""", pos: ",H375,", points: ",I375,", money: ",J375,", pay: ",K375,"}")</f>
+        <v>{ player_id: "Piretta", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M375" t="str">
+        <f>CONCATENATE("{ player_id: """,G375,""", pos: ",H375,", points: ",I375,", money: ",J375,", pay: ",K375,"}")</f>
+        <v>{ player_id: "Piretta", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-    </row>
-    <row r="378" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L376" t="s">
+        <v>108</v>
+      </c>
+      <c r="M376" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="5"/>
       <c r="C378" s="3"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="383" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
       <c r="C383" s="3"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="390" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="5"/>
       <c r="C390" s="3"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H392" t="s">
+        <v>12</v>
+      </c>
+      <c r="I392">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="393" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-    </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H393" t="s">
+        <v>14</v>
+      </c>
+      <c r="I393">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="394" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
+      <c r="H394" t="s">
+        <v>9</v>
+      </c>
+      <c r="I394">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H395" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I395">
+        <v>-0.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="135">
   <si>
     <t>NickName</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2014-12-12</t>
+  </si>
+  <si>
+    <t>2014-12-19</t>
   </si>
 </sst>
 </file>
@@ -1526,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M395"/>
+  <dimension ref="A1:M413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L369" sqref="L369:L376"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L393" sqref="L393:L409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10970,80 +10979,858 @@
         <v>109</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="5"/>
-      <c r="C378" s="3"/>
-      <c r="D378" s="1"/>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>133</v>
+      </c>
+      <c r="B377" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E377" s="4">
+        <v>1</v>
+      </c>
+      <c r="F377" s="4">
+        <v>0</v>
+      </c>
+      <c r="L377" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A377,",year: ",B377,",date: ISODate(""",C377,"""),details: {location: """,D377,""",tables: ",E377,",final: ",F377,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 133,year: 2014,date: ISODate("2014-12-05"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M377" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A377,"""},{$set: {year: ",B377,",date: ISODate(""",C377,"""),details: {location: """,D377,""",tables: ",E377,",final: ",F377,"},results: [")</f>
+        <v>db.tournaments.update({_id: "133"},{$set: {year: 2014,date: ISODate("2014-12-05"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G378" t="s">
+        <v>10</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>250</v>
+      </c>
+      <c r="J378">
+        <v>20</v>
+      </c>
+      <c r="K378">
+        <v>5</v>
+      </c>
+      <c r="L378" t="str">
+        <f>CONCATENATE("{ player_id: """,G378,""", pos: ",H378,", points: ",I378,", money: ",J378,", pay: ",K378,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 250, money: 20, pay: 5},</v>
+      </c>
+      <c r="M378" t="str">
+        <f>CONCATENATE("{ player_id: """,G378,""", pos: ",H378,", points: ",I378,", money: ",J378,", pay: ",K378,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 250, money: 20, pay: 5},</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="G379" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379">
+        <v>2</v>
+      </c>
+      <c r="I379">
+        <v>125</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>5</v>
+      </c>
+      <c r="L379" t="str">
+        <f>CONCATENATE("{ player_id: """,G379,""", pos: ",H379,", points: ",I379,", money: ",J379,", pay: ",K379,"},")</f>
+        <v>{ player_id: "Cana", pos: 2, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M379" t="str">
+        <f>CONCATENATE("{ player_id: """,G379,""", pos: ",H379,", points: ",I379,", money: ",J379,", pay: ",K379,"},")</f>
+        <v>{ player_id: "Cana", pos: 2, points: 125, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
+      <c r="G380" t="s">
+        <v>2</v>
+      </c>
+      <c r="H380">
+        <v>3</v>
+      </c>
+      <c r="I380">
+        <v>83.31</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>5</v>
+      </c>
+      <c r="L380" t="str">
+        <f>CONCATENATE("{ player_id: """,G380,""", pos: ",H380,", points: ",I380,", money: ",J380,", pay: ",K380,"},")</f>
+        <v>{ player_id: "Tiga", pos: 3, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M380" t="str">
+        <f>CONCATENATE("{ player_id: """,G380,""", pos: ",H380,", points: ",I380,", money: ",J380,", pay: ",K380,"},")</f>
+        <v>{ player_id: "Tiga", pos: 3, points: 83.31, money: 0, pay: 5},</v>
+      </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-    </row>
-    <row r="383" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="5"/>
-      <c r="C383" s="3"/>
-      <c r="D383" s="1"/>
-    </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G381" t="s">
+        <v>12</v>
+      </c>
+      <c r="H381">
+        <v>4</v>
+      </c>
+      <c r="I381">
+        <v>62.5</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>5</v>
+      </c>
+      <c r="L381" t="str">
+        <f>CONCATENATE("{ player_id: """,G381,""", pos: ",H381,", points: ",I381,", money: ",J381,", pay: ",K381,"}")</f>
+        <v>{ player_id: "Stecca", pos: 4, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M381" t="str">
+        <f>CONCATENATE("{ player_id: """,G381,""", pos: ",H381,", points: ",I381,", money: ",J381,", pay: ",K381,"}")</f>
+        <v>{ player_id: "Stecca", pos: 4, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="L382" t="s">
+        <v>108</v>
+      </c>
+      <c r="M382" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <v>134</v>
+      </c>
+      <c r="B383" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E383" s="4">
+        <v>1</v>
+      </c>
+      <c r="F383" s="4">
+        <v>0</v>
+      </c>
+      <c r="L383" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A383,",year: ",B383,",date: ISODate(""",C383,"""),details: {location: """,D383,""",tables: ",E383,",final: ",F383,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 134,year: 2014,date: ISODate("2014-12-12"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M383" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A383,"""},{$set: {year: ",B383,",date: ISODate(""",C383,"""),details: {location: """,D383,""",tables: ",E383,",final: ",F383,"},results: [")</f>
+        <v>db.tournaments.update({_id: "134"},{$set: {year: 2014,date: ISODate("2014-12-12"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G384" t="s">
+        <v>8</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384">
+        <v>500</v>
+      </c>
+      <c r="J384">
+        <v>40</v>
+      </c>
+      <c r="K384">
+        <v>5</v>
+      </c>
+      <c r="L384" t="str">
+        <f t="shared" ref="L384:L391" si="65">CONCATENATE("{ player_id: """,G384,""", pos: ",H384,", points: ",I384,", money: ",J384,", pay: ",K384,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+      <c r="M384" t="str">
+        <f t="shared" ref="M384:M391" si="66">CONCATENATE("{ player_id: """,G384,""", pos: ",H384,", points: ",I384,", money: ",J384,", pay: ",K384,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-    </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G385" t="s">
+        <v>13</v>
+      </c>
+      <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
+        <v>250</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>5</v>
+      </c>
+      <c r="L385" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Ben", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+      <c r="M385" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Ben", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-    </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G386" t="s">
+        <v>6</v>
+      </c>
+      <c r="H386">
+        <v>3</v>
+      </c>
+      <c r="I386">
+        <v>166.62</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>5</v>
+      </c>
+      <c r="L386" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Rico", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M386" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Rico", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G387" t="s">
+        <v>2</v>
+      </c>
+      <c r="H387">
+        <v>4</v>
+      </c>
+      <c r="I387">
+        <v>125</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>5</v>
+      </c>
+      <c r="L387" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Tiga", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M387" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Tiga", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-    </row>
-    <row r="390" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="5"/>
-      <c r="C390" s="3"/>
+      <c r="G388" t="s">
+        <v>19</v>
+      </c>
+      <c r="H388">
+        <v>5</v>
+      </c>
+      <c r="I388">
+        <v>100</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>5</v>
+      </c>
+      <c r="L388" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Pipps", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+      <c r="M388" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Pipps", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="G389" t="s">
+        <v>12</v>
+      </c>
+      <c r="H389">
+        <v>6</v>
+      </c>
+      <c r="I389">
+        <v>83.31</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>5</v>
+      </c>
+      <c r="L389" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Stecca", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M389" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Stecca", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-    </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="H392" t="s">
+      <c r="G390" t="s">
+        <v>10</v>
+      </c>
+      <c r="H390">
+        <v>7</v>
+      </c>
+      <c r="I390">
+        <v>71.37</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>5</v>
+      </c>
+      <c r="L390" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Matteo", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+      <c r="M390" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Matteo", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391">
+        <v>8</v>
+      </c>
+      <c r="I391">
+        <v>62.5</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>5</v>
+      </c>
+      <c r="L391" t="str">
+        <f t="shared" si="65"/>
+        <v>{ player_id: "Nero", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M391" t="str">
+        <f t="shared" si="66"/>
+        <v>{ player_id: "Nero", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L392" t="s">
+        <v>108</v>
+      </c>
+      <c r="M392" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>135</v>
+      </c>
+      <c r="B393" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E393" s="4">
+        <v>2</v>
+      </c>
+      <c r="F393" s="4">
+        <v>1</v>
+      </c>
+      <c r="L393" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A393,",year: ",B393,",date: ISODate(""",C393,"""),details: {location: """,D393,""",tables: ",E393,",final: ",F393,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 135,year: 2014,date: ISODate("2014-12-19"),details: {location: "Cantina",tables: 2,final: 1},results: [</v>
+      </c>
+      <c r="M393" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A393,"""},{$set: {year: ",B393,",date: ISODate(""",C393,"""),details: {location: """,D393,""",tables: ",E393,",final: ",F393,"},results: [")</f>
+        <v>db.tournaments.update({_id: "135"},{$set: {year: 2014,date: ISODate("2014-12-19"),details: {location: "Cantina",tables: 2,final: 1},results: [</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G394" t="s">
+        <v>8</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>60</v>
+      </c>
+      <c r="K394">
+        <v>5</v>
+      </c>
+      <c r="L394" t="str">
+        <f t="shared" ref="L394:L401" si="67">CONCATENATE("{ player_id: """,G394,""", pos: ",H394,", points: ",I394,", money: ",J394,", pay: ",K394,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 0, money: 60, pay: 5},</v>
+      </c>
+      <c r="M394" t="str">
+        <f t="shared" ref="M394:M401" si="68">CONCATENATE("{ player_id: """,G394,""", pos: ",H394,", points: ",I394,", money: ",J394,", pay: ",K394,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 0, money: 60, pay: 5},</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="G395" t="s">
+        <v>2</v>
+      </c>
+      <c r="H395">
+        <v>2</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>15</v>
+      </c>
+      <c r="K395">
+        <v>5</v>
+      </c>
+      <c r="L395" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Tiga", pos: 2, points: 0, money: 15, pay: 5},</v>
+      </c>
+      <c r="M395" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Tiga", pos: 2, points: 0, money: 15, pay: 5},</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="G396" t="s">
         <v>12</v>
       </c>
-      <c r="I392">
+      <c r="H396">
+        <v>3</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>5</v>
+      </c>
+      <c r="L396" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Stecca", pos: 3, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M396" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Stecca", pos: 3, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="G397" t="s">
+        <v>10</v>
+      </c>
+      <c r="H397">
+        <v>4</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>5</v>
+      </c>
+      <c r="L397" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M397" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="G398" t="s">
+        <v>9</v>
+      </c>
+      <c r="H398">
+        <v>5</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>5</v>
+      </c>
+      <c r="L398" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Busca", pos: 5, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M398" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Busca", pos: 5, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="G399" t="s">
+        <v>15</v>
+      </c>
+      <c r="H399">
+        <v>6</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>5</v>
+      </c>
+      <c r="L399" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Luca Pa", pos: 6, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M399" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Luca Pa", pos: 6, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="G400" t="s">
+        <v>11</v>
+      </c>
+      <c r="H400">
+        <v>7</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>5</v>
+      </c>
+      <c r="L400" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Piretta", pos: 7, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M400" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Piretta", pos: 7, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="401" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="G401" t="s">
+        <v>5</v>
+      </c>
+      <c r="H401">
+        <v>8</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>5</v>
+      </c>
+      <c r="L401" t="str">
+        <f t="shared" si="67"/>
+        <v>{ player_id: "Suarez", pos: 8, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M401" t="str">
+        <f t="shared" si="68"/>
+        <v>{ player_id: "Suarez", pos: 8, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="402" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G402" t="s">
+        <v>13</v>
+      </c>
+      <c r="H402">
+        <v>9</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>5</v>
+      </c>
+      <c r="L402" t="str">
+        <f t="shared" ref="L402:L408" si="69">CONCATENATE("{ player_id: """,G402,""", pos: ",H402,", points: ",I402,", money: ",J402,", pay: ",K402,"},")</f>
+        <v>{ player_id: "Ben", pos: 9, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M402" t="str">
+        <f t="shared" ref="M402:M408" si="70">CONCATENATE("{ player_id: """,G402,""", pos: ",H402,", points: ",I402,", money: ",J402,", pay: ",K402,"},")</f>
+        <v>{ player_id: "Ben", pos: 9, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="403" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="G403" t="s">
+        <v>6</v>
+      </c>
+      <c r="H403">
+        <v>10</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>5</v>
+      </c>
+      <c r="L403" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Rico", pos: 10, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M403" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Rico", pos: 10, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="404" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="G404" t="s">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>11</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>5</v>
+      </c>
+      <c r="L404" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Edo", pos: 11, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M404" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Edo", pos: 11, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="405" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G405" t="s">
+        <v>3</v>
+      </c>
+      <c r="H405">
+        <v>12</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>5</v>
+      </c>
+      <c r="L405" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Vale", pos: 12, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M405" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Vale", pos: 12, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="406" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G406" t="s">
+        <v>14</v>
+      </c>
+      <c r="H406">
+        <v>13</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>5</v>
+      </c>
+      <c r="L406" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Nero", pos: 13, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M406" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Nero", pos: 13, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="407" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G407" t="s">
+        <v>19</v>
+      </c>
+      <c r="H407">
+        <v>14</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>5</v>
+      </c>
+      <c r="L407" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Pipps", pos: 14, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M407" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Pipps", pos: 14, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="408" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G408" t="s">
+        <v>20</v>
+      </c>
+      <c r="H408">
+        <v>15</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>5</v>
+      </c>
+      <c r="L408" t="str">
+        <f t="shared" si="69"/>
+        <v>{ player_id: "Riw", pos: 15, points: 0, money: 0, pay: 5},</v>
+      </c>
+      <c r="M408" t="str">
+        <f t="shared" si="70"/>
+        <v>{ player_id: "Riw", pos: 15, points: 0, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="409" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L409" t="s">
+        <v>108</v>
+      </c>
+      <c r="M409" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="410" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H410" t="s">
+        <v>12</v>
+      </c>
+      <c r="I410">
         <v>0.12</v>
       </c>
     </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="H393" t="s">
+    <row r="411" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H411" t="s">
         <v>14</v>
       </c>
-      <c r="I393">
+      <c r="I411">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="H394" t="s">
+    <row r="412" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H412" t="s">
         <v>9</v>
       </c>
-      <c r="I394">
+      <c r="I412">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H395" s="4" t="s">
+    <row r="413" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H413" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I395">
+      <c r="I413">
         <v>-0.3</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="136">
   <si>
     <t>NickName</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>2014-12-19</t>
+  </si>
+  <si>
+    <t>2015-01-02</t>
   </si>
 </sst>
 </file>
@@ -1535,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M413"/>
+  <dimension ref="A1:M420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L393" sqref="L393:L409"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L410" sqref="L410:L420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,18 +9036,18 @@
         <v>562.5</v>
       </c>
       <c r="J298">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K298">
         <v>5</v>
       </c>
       <c r="L298" t="str">
-        <f t="shared" ref="L298:L305" si="49">CONCATENATE("{ player_id: """,G298,""", pos: ",H298,", points: ",I298,", money: ",J298,", pay: ",K298,"},")</f>
-        <v>{ player_id: "Tiga", pos: 1, points: 562.5, money: 50, pay: 5},</v>
+        <f t="shared" ref="L298:L306" si="49">CONCATENATE("{ player_id: """,G298,""", pos: ",H298,", points: ",I298,", money: ",J298,", pay: ",K298,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 562,5, money: 45, pay: 5},</v>
       </c>
       <c r="M298" t="str">
         <f t="shared" ref="M298:M305" si="50">CONCATENATE("{ player_id: """,G298,""", pos: ",H298,", points: ",I298,", money: ",J298,", pay: ",K298,"},")</f>
-        <v>{ player_id: "Tiga", pos: 1, points: 562.5, money: 50, pay: 5},</v>
+        <v>{ player_id: "Tiga", pos: 1, points: 562,5, money: 45, pay: 5},</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -9255,8 +9258,8 @@
         <v>5</v>
       </c>
       <c r="L306" t="str">
-        <f>CONCATENATE("{ player_id: """,G306,""", pos: ",H306,", points: ",I306,", money: ",J306,", pay: ",K306,"}")</f>
-        <v>{ player_id: "Pipps", pos: 9, points: 62.5, money: 0, pay: 5}</v>
+        <f t="shared" si="49"/>
+        <v>{ player_id: "Pipps", pos: 9, points: 62,5, money: 0, pay: 5},</v>
       </c>
       <c r="M306" t="str">
         <f>CONCATENATE("{ player_id: """,G306,""", pos: ",H306,", points: ",I306,", money: ",J306,", pay: ",K306,"}")</f>
@@ -11588,7 +11591,7 @@
         <v>{ player_id: "Piretta", pos: 7, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="401" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="G401" t="s">
@@ -11615,7 +11618,7 @@
         <v>{ player_id: "Suarez", pos: 8, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="402" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G402" t="s">
         <v>13</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>{ player_id: "Ben", pos: 9, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="403" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="G403" t="s">
@@ -11667,7 +11670,7 @@
         <v>{ player_id: "Rico", pos: 10, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="404" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="G404" t="s">
@@ -11694,7 +11697,7 @@
         <v>{ player_id: "Edo", pos: 11, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="405" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G405" t="s">
         <v>3</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>{ player_id: "Vale", pos: 12, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="406" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G406" t="s">
         <v>14</v>
       </c>
@@ -11744,7 +11747,7 @@
         <v>{ player_id: "Nero", pos: 13, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="407" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G407" t="s">
         <v>19</v>
       </c>
@@ -11769,7 +11772,7 @@
         <v>{ player_id: "Pipps", pos: 14, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="408" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G408" t="s">
         <v>20</v>
       </c>
@@ -11794,7 +11797,7 @@
         <v>{ player_id: "Riw", pos: 15, points: 0, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="409" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L409" t="s">
         <v>108</v>
       </c>
@@ -11802,36 +11805,281 @@
         <v>109</v>
       </c>
     </row>
-    <row r="410" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H410" t="s">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
+        <v>136</v>
+      </c>
+      <c r="B410" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E410" s="4">
+        <v>1</v>
+      </c>
+      <c r="F410" s="4">
+        <v>0</v>
+      </c>
+      <c r="L410" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A410,",year: ",B410,",date: ISODate(""",C410,"""),details: {location: """,D410,""",tables: ",E410,",final: ",F410,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 136,year: 2015,date: ISODate("2015-01-02"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M410" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A410,"""},{$set: {year: ",B410,",date: ISODate(""",C410,"""),details: {location: """,D410,""",tables: ",E410,",final: ",F410,"},results: [")</f>
+        <v>db.tournaments.update({_id: "136"},{$set: {year: 2015,date: ISODate("2015-01-02"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G411" t="s">
+        <v>2</v>
+      </c>
+      <c r="H411">
+        <v>1</v>
+      </c>
+      <c r="I411">
+        <v>562.5</v>
+      </c>
+      <c r="J411">
+        <v>45</v>
+      </c>
+      <c r="K411">
+        <v>5</v>
+      </c>
+      <c r="L411" t="str">
+        <f>CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 562.5, money: 45, pay: 5},</v>
+      </c>
+      <c r="M411" t="str">
+        <f t="shared" ref="M411:M418" si="71">CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 562,5, money: 45, pay: 5},</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="G412" t="s">
+        <v>5</v>
+      </c>
+      <c r="H412">
+        <v>2</v>
+      </c>
+      <c r="I412">
+        <v>281.25</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>5</v>
+      </c>
+      <c r="L412" t="str">
+        <f>CONCATENATE("{ player_id: """,G412,""", pos: ",H412,", points: ",I412,", money: ",J412,", pay: ",K412,"},")</f>
+        <v>{ player_id: "Suarez", pos: 2, points: 281.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M412" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Suarez", pos: 2, points: 281,25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="G413" t="s">
+        <v>10</v>
+      </c>
+      <c r="H413">
+        <v>3</v>
+      </c>
+      <c r="I413">
+        <v>187.5</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>5</v>
+      </c>
+      <c r="L413" t="str">
+        <f>CONCATENATE("{ player_id: """,G413,""", pos: ",H413,", points: ",I413,", money: ",J413,", pay: ",K413,"},")</f>
+        <v>{ player_id: "Matteo", pos: 3, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M413" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Matteo", pos: 3, points: 187,5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="G414" t="s">
         <v>12</v>
       </c>
-      <c r="I410">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="411" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H411" t="s">
-        <v>14</v>
-      </c>
-      <c r="I411">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="412" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H412" t="s">
+      <c r="H414">
+        <v>4</v>
+      </c>
+      <c r="I414">
+        <v>140.62</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>5</v>
+      </c>
+      <c r="L414" t="str">
+        <f>CONCATENATE("{ player_id: """,G414,""", pos: ",H414,", points: ",I414,", money: ",J414,", pay: ",K414,"},")</f>
+        <v>{ player_id: "Stecca", pos: 4, points: 140.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M414" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Stecca", pos: 4, points: 140,62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="G415" t="s">
+        <v>21</v>
+      </c>
+      <c r="H415">
+        <v>5</v>
+      </c>
+      <c r="I415">
+        <v>112.5</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>5</v>
+      </c>
+      <c r="L415" t="str">
+        <f>CONCATENATE("{ player_id: """,G415,""", pos: ",H415,", points: ",I415,", money: ",J415,", pay: ",K415,"},")</f>
+        <v>{ player_id: "Ciodo", pos: 5, points: 112.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M415" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Ciodo", pos: 5, points: 112,5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="G416" t="s">
+        <v>19</v>
+      </c>
+      <c r="H416">
+        <v>6</v>
+      </c>
+      <c r="I416">
+        <v>93.75</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>5</v>
+      </c>
+      <c r="L416" t="str">
+        <f>CONCATENATE("{ player_id: """,G416,""", pos: ",H416,", points: ",I416,", money: ",J416,", pay: ",K416,"},")</f>
+        <v>{ player_id: "Pipps", pos: 6, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M416" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Pipps", pos: 6, points: 93,75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="417" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="G417" t="s">
         <v>9</v>
       </c>
-      <c r="I412">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="413" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H413" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I413">
-        <v>-0.3</v>
+      <c r="H417">
+        <v>7</v>
+      </c>
+      <c r="I417">
+        <v>80.31</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>5</v>
+      </c>
+      <c r="L417" t="str">
+        <f>CONCATENATE("{ player_id: """,G417,""", pos: ",H417,", points: ",I417,", money: ",J417,", pay: ",K417,"},")</f>
+        <v>{ player_id: "Busca", pos: 7, points: 80.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M417" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Busca", pos: 7, points: 80,31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="418" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="G418" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418">
+        <v>8</v>
+      </c>
+      <c r="I418">
+        <v>70.31</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>5</v>
+      </c>
+      <c r="L418" t="str">
+        <f>CONCATENATE("{ player_id: """,G418,""", pos: ",H418,", points: ",I418,", money: ",J418,", pay: ",K418,"},")</f>
+        <v>{ player_id: "Rico", pos: 8, points: 70.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M418" t="str">
+        <f t="shared" si="71"/>
+        <v>{ player_id: "Rico", pos: 8, points: 70,31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="419" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="G419" t="s">
+        <v>8</v>
+      </c>
+      <c r="H419">
+        <v>9</v>
+      </c>
+      <c r="I419">
+        <v>62.5</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>5</v>
+      </c>
+      <c r="L419" t="str">
+        <f>CONCATENATE("{ player_id: """,G419,""", pos: ",H419,", points: ",I419,", money: ",J419,", pay: ",K419,"},")</f>
+        <v>{ player_id: "Cana", pos: 9, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M419" t="str">
+        <f>CONCATENATE("{ player_id: """,G419,""", pos: ",H419,", points: ",I419,", money: ",J419,", pay: ",K419,"}")</f>
+        <v>{ player_id: "Cana", pos: 9, points: 62,5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="420" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L420" t="s">
+        <v>108</v>
+      </c>
+      <c r="M420" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="137">
   <si>
     <t>NickName</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>2015-01-02</t>
+  </si>
+  <si>
+    <t>2015-01-09</t>
   </si>
 </sst>
 </file>
@@ -1538,11 +1541,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M420"/>
+  <dimension ref="A1:M428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L410" sqref="L410:L420"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L421" sqref="L421:L428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11850,11 +11853,11 @@
         <v>5</v>
       </c>
       <c r="L411" t="str">
-        <f>CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
+        <f t="shared" ref="L411:L419" si="71">CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
         <v>{ player_id: "Tiga", pos: 1, points: 562.5, money: 45, pay: 5},</v>
       </c>
       <c r="M411" t="str">
-        <f t="shared" ref="M411:M418" si="71">CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
+        <f t="shared" ref="M411:M418" si="72">CONCATENATE("{ player_id: """,G411,""", pos: ",H411,", points: ",I411,", money: ",J411,", pay: ",K411,"},")</f>
         <v>{ player_id: "Tiga", pos: 1, points: 562,5, money: 45, pay: 5},</v>
       </c>
     </row>
@@ -11877,11 +11880,11 @@
         <v>5</v>
       </c>
       <c r="L412" t="str">
-        <f>CONCATENATE("{ player_id: """,G412,""", pos: ",H412,", points: ",I412,", money: ",J412,", pay: ",K412,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Suarez", pos: 2, points: 281.25, money: 0, pay: 5},</v>
       </c>
       <c r="M412" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Suarez", pos: 2, points: 281,25, money: 0, pay: 5},</v>
       </c>
     </row>
@@ -11904,11 +11907,11 @@
         <v>5</v>
       </c>
       <c r="L413" t="str">
-        <f>CONCATENATE("{ player_id: """,G413,""", pos: ",H413,", points: ",I413,", money: ",J413,", pay: ",K413,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Matteo", pos: 3, points: 187.5, money: 0, pay: 5},</v>
       </c>
       <c r="M413" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Matteo", pos: 3, points: 187,5, money: 0, pay: 5},</v>
       </c>
     </row>
@@ -11931,11 +11934,11 @@
         <v>5</v>
       </c>
       <c r="L414" t="str">
-        <f>CONCATENATE("{ player_id: """,G414,""", pos: ",H414,", points: ",I414,", money: ",J414,", pay: ",K414,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Stecca", pos: 4, points: 140.62, money: 0, pay: 5},</v>
       </c>
       <c r="M414" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Stecca", pos: 4, points: 140,62, money: 0, pay: 5},</v>
       </c>
     </row>
@@ -11958,11 +11961,11 @@
         <v>5</v>
       </c>
       <c r="L415" t="str">
-        <f>CONCATENATE("{ player_id: """,G415,""", pos: ",H415,", points: ",I415,", money: ",J415,", pay: ",K415,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Ciodo", pos: 5, points: 112.5, money: 0, pay: 5},</v>
       </c>
       <c r="M415" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Ciodo", pos: 5, points: 112,5, money: 0, pay: 5},</v>
       </c>
     </row>
@@ -11985,15 +11988,15 @@
         <v>5</v>
       </c>
       <c r="L416" t="str">
-        <f>CONCATENATE("{ player_id: """,G416,""", pos: ",H416,", points: ",I416,", money: ",J416,", pay: ",K416,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Pipps", pos: 6, points: 93.75, money: 0, pay: 5},</v>
       </c>
       <c r="M416" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Pipps", pos: 6, points: 93,75, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="417" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="G417" t="s">
@@ -12012,15 +12015,15 @@
         <v>5</v>
       </c>
       <c r="L417" t="str">
-        <f>CONCATENATE("{ player_id: """,G417,""", pos: ",H417,", points: ",I417,", money: ",J417,", pay: ",K417,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Busca", pos: 7, points: 80.31, money: 0, pay: 5},</v>
       </c>
       <c r="M417" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Busca", pos: 7, points: 80,31, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="418" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="G418" t="s">
@@ -12039,15 +12042,15 @@
         <v>5</v>
       </c>
       <c r="L418" t="str">
-        <f>CONCATENATE("{ player_id: """,G418,""", pos: ",H418,", points: ",I418,", money: ",J418,", pay: ",K418,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Rico", pos: 8, points: 70.31, money: 0, pay: 5},</v>
       </c>
       <c r="M418" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>{ player_id: "Rico", pos: 8, points: 70,31, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="419" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="G419" t="s">
@@ -12066,7 +12069,7 @@
         <v>5</v>
       </c>
       <c r="L419" t="str">
-        <f>CONCATENATE("{ player_id: """,G419,""", pos: ",H419,", points: ",I419,", money: ",J419,", pay: ",K419,"},")</f>
+        <f t="shared" si="71"/>
         <v>{ player_id: "Cana", pos: 9, points: 62.5, money: 0, pay: 5},</v>
       </c>
       <c r="M419" t="str">
@@ -12074,11 +12077,209 @@
         <v>{ player_id: "Cana", pos: 9, points: 62,5, money: 0, pay: 5}</v>
       </c>
     </row>
-    <row r="420" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L420" t="s">
         <v>108</v>
       </c>
       <c r="M420" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <v>137</v>
+      </c>
+      <c r="B421" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E421" s="4">
+        <v>1</v>
+      </c>
+      <c r="F421" s="4">
+        <v>0</v>
+      </c>
+      <c r="L421" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A421,",year: ",B421,",date: ISODate(""",C421,"""),details: {location: """,D421,""",tables: ",E421,",final: ",F421,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 137,year: 2015,date: ISODate("2015-01-09"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M421" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A421,"""},{$set: {year: ",B421,",date: ISODate(""",C421,"""),details: {location: """,D421,""",tables: ",E421,",final: ",F421,"},results: [")</f>
+        <v>db.tournaments.update({_id: "137"},{$set: {year: 2015,date: ISODate("2015-01-09"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G422" t="s">
+        <v>10</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>375</v>
+      </c>
+      <c r="J422">
+        <v>30</v>
+      </c>
+      <c r="K422">
+        <v>5</v>
+      </c>
+      <c r="L422" t="str">
+        <f>CONCATENATE("{ player_id: """,G422,""", pos: ",H422,", points: ",I422,", money: ",J422,", pay: ",K422,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+      <c r="M422" t="str">
+        <f t="shared" ref="M422:M426" si="73">CONCATENATE("{ player_id: """,G422,""", pos: ",H422,", points: ",I422,", money: ",J422,", pay: ",K422,"},")</f>
+        <v>{ player_id: "Matteo", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="G423" t="s">
+        <v>12</v>
+      </c>
+      <c r="H423">
+        <v>2</v>
+      </c>
+      <c r="I423">
+        <v>187.5</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>5</v>
+      </c>
+      <c r="L423" t="str">
+        <f>CONCATENATE("{ player_id: """,G423,""", pos: ",H423,", points: ",I423,", money: ",J423,", pay: ",K423,"},")</f>
+        <v>{ player_id: "Stecca", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M423" t="str">
+        <f t="shared" si="73"/>
+        <v>{ player_id: "Stecca", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="G424" t="s">
+        <v>5</v>
+      </c>
+      <c r="H424">
+        <v>3</v>
+      </c>
+      <c r="I424">
+        <v>125</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>5</v>
+      </c>
+      <c r="L424" t="str">
+        <f>CONCATENATE("{ player_id: """,G424,""", pos: ",H424,", points: ",I424,", money: ",J424,", pay: ",K424,"},")</f>
+        <v>{ player_id: "Suarez", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M424" t="str">
+        <f t="shared" si="73"/>
+        <v>{ player_id: "Suarez", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="G425" t="s">
+        <v>16</v>
+      </c>
+      <c r="H425">
+        <v>4</v>
+      </c>
+      <c r="I425">
+        <v>93.75</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>5</v>
+      </c>
+      <c r="L425" t="str">
+        <f>CONCATENATE("{ player_id: """,G425,""", pos: ",H425,", points: ",I425,", money: ",J425,", pay: ",K425,"},")</f>
+        <v>{ player_id: "Savello", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M425" t="str">
+        <f t="shared" si="73"/>
+        <v>{ player_id: "Savello", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="G426" t="s">
+        <v>2</v>
+      </c>
+      <c r="H426">
+        <v>5</v>
+      </c>
+      <c r="I426">
+        <v>75</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>5</v>
+      </c>
+      <c r="L426" t="str">
+        <f>CONCATENATE("{ player_id: """,G426,""", pos: ",H426,", points: ",I426,", money: ",J426,", pay: ",K426,"},")</f>
+        <v>{ player_id: "Tiga", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M426" t="str">
+        <f t="shared" si="73"/>
+        <v>{ player_id: "Tiga", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="G427" t="s">
+        <v>13</v>
+      </c>
+      <c r="H427">
+        <v>6</v>
+      </c>
+      <c r="I427">
+        <v>62.5</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>5</v>
+      </c>
+      <c r="L427" t="str">
+        <f>CONCATENATE("{ player_id: """,G427,""", pos: ",H427,", points: ",I427,", money: ",J427,", pay: ",K427,"}")</f>
+        <v>{ player_id: "Ben", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M427" t="str">
+        <f>CONCATENATE("{ player_id: """,G427,""", pos: ",H427,", points: ",I427,", money: ",J427,", pay: ",K427,"}")</f>
+        <v>{ player_id: "Ben", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="L428" t="s">
+        <v>108</v>
+      </c>
+      <c r="M428" t="s">
         <v>109</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="140">
   <si>
     <t>NickName</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>2015-01-09</t>
+  </si>
+  <si>
+    <t>2015-01-10</t>
+  </si>
+  <si>
+    <t>Savo</t>
+  </si>
+  <si>
+    <t>Castel</t>
   </si>
 </sst>
 </file>
@@ -1541,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M428"/>
+  <dimension ref="A1:M438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L421" sqref="L421:L428"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L429" sqref="L429:L438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12283,6 +12292,256 @@
         <v>109</v>
       </c>
     </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
+        <v>138</v>
+      </c>
+      <c r="B429" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E429" s="4">
+        <v>1</v>
+      </c>
+      <c r="F429" s="4">
+        <v>0</v>
+      </c>
+      <c r="L429" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A429,",year: ",B429,",date: ISODate(""",C429,"""),details: {location: """,D429,""",tables: ",E429,",final: ",F429,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 138,year: 2015,date: ISODate("2015-01-10"),details: {location: "Folgarida",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M429" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A429,"""},{$set: {year: ",B429,",date: ISODate(""",C429,"""),details: {location: """,D429,""",tables: ",E429,",final: ",F429,"},results: [")</f>
+        <v>db.tournaments.update({_id: "138"},{$set: {year: 2015,date: ISODate("2015-01-10"),details: {location: "Folgarida",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G430" t="s">
+        <v>15</v>
+      </c>
+      <c r="H430">
+        <v>1</v>
+      </c>
+      <c r="I430">
+        <v>500</v>
+      </c>
+      <c r="J430">
+        <v>40</v>
+      </c>
+      <c r="K430">
+        <v>5</v>
+      </c>
+      <c r="L430" t="str">
+        <f t="shared" ref="L430:L437" si="74">CONCATENATE("{ player_id: """,G430,""", pos: ",H430,", points: ",I430,", money: ",J430,", pay: ",K430,"},")</f>
+        <v>{ player_id: "Luca Pa", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+      <c r="M430" t="str">
+        <f t="shared" ref="M430:M437" si="75">CONCATENATE("{ player_id: """,G430,""", pos: ",H430,", points: ",I430,", money: ",J430,", pay: ",K430,"},")</f>
+        <v>{ player_id: "Luca Pa", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="G431" t="s">
+        <v>8</v>
+      </c>
+      <c r="H431">
+        <v>2</v>
+      </c>
+      <c r="I431">
+        <v>250</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>5</v>
+      </c>
+      <c r="L431" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Cana", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+      <c r="M431" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Cana", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+      <c r="G432" t="s">
+        <v>138</v>
+      </c>
+      <c r="H432">
+        <v>3</v>
+      </c>
+      <c r="I432">
+        <v>166.62</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>5</v>
+      </c>
+      <c r="L432" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Savo", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M432" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Savo", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="433" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="G433" t="s">
+        <v>139</v>
+      </c>
+      <c r="H433">
+        <v>4</v>
+      </c>
+      <c r="I433">
+        <v>125</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>5</v>
+      </c>
+      <c r="L433" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Castel", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M433" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Castel", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="434" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="G434" t="s">
+        <v>18</v>
+      </c>
+      <c r="H434">
+        <v>5</v>
+      </c>
+      <c r="I434">
+        <v>100</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>5</v>
+      </c>
+      <c r="L434" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Sangio", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+      <c r="M434" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Sangio", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="435" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="G435" t="s">
+        <v>28</v>
+      </c>
+      <c r="H435">
+        <v>6</v>
+      </c>
+      <c r="I435">
+        <v>83.31</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>5</v>
+      </c>
+      <c r="L435" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Baggio", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M435" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Baggio", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="436" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="G436" t="s">
+        <v>31</v>
+      </c>
+      <c r="H436">
+        <v>7</v>
+      </c>
+      <c r="I436">
+        <v>71.37</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>5</v>
+      </c>
+      <c r="L436" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Ciccio", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+      <c r="M436" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Ciccio", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="437" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="G437" t="s">
+        <v>24</v>
+      </c>
+      <c r="H437">
+        <v>8</v>
+      </c>
+      <c r="I437">
+        <v>62.5</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>5</v>
+      </c>
+      <c r="L437" t="str">
+        <f t="shared" si="74"/>
+        <v>{ player_id: "Bus", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M437" t="str">
+        <f t="shared" si="75"/>
+        <v>{ player_id: "Bus", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="438" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L438" t="s">
+        <v>108</v>
+      </c>
+      <c r="M438" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="141">
   <si>
     <t>NickName</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Castel</t>
+  </si>
+  <si>
+    <t>2015-01-16</t>
   </si>
 </sst>
 </file>
@@ -1550,11 +1553,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M438"/>
+  <dimension ref="A1:M449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L429" sqref="L429:L438"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L439" sqref="L439:L449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12399,7 +12402,7 @@
         <v>{ player_id: "Savo", pos: 3, points: 166.62, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="433" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="G433" t="s">
@@ -12426,7 +12429,7 @@
         <v>{ player_id: "Castel", pos: 4, points: 125, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="434" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="G434" t="s">
@@ -12453,7 +12456,7 @@
         <v>{ player_id: "Sangio", pos: 5, points: 100, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="435" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="G435" t="s">
@@ -12480,7 +12483,7 @@
         <v>{ player_id: "Baggio", pos: 6, points: 83.31, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="436" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="G436" t="s">
@@ -12507,7 +12510,7 @@
         <v>{ player_id: "Ciccio", pos: 7, points: 71.37, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="437" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="G437" t="s">
@@ -12534,11 +12537,288 @@
         <v>{ player_id: "Bus", pos: 8, points: 62.5, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="438" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L438" t="s">
         <v>108</v>
       </c>
       <c r="M438" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" s="4">
+        <v>139</v>
+      </c>
+      <c r="B439" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E439" s="4">
+        <v>1</v>
+      </c>
+      <c r="F439" s="4">
+        <v>0</v>
+      </c>
+      <c r="L439" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A439,",year: ",B439,",date: ISODate(""",C439,"""),details: {location: """,D439,""",tables: ",E439,",final: ",F439,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 139,year: 2015,date: ISODate("2015-01-16"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M439" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A439,"""},{$set: {year: ",B439,",date: ISODate(""",C439,"""),details: {location: """,D439,""",tables: ",E439,",final: ",F439,"},results: [")</f>
+        <v>db.tournaments.update({_id: "139"},{$set: {year: 2015,date: ISODate("2015-01-16"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G440" t="s">
+        <v>8</v>
+      </c>
+      <c r="H440">
+        <v>1</v>
+      </c>
+      <c r="I440">
+        <v>562.5</v>
+      </c>
+      <c r="J440">
+        <v>45</v>
+      </c>
+      <c r="K440">
+        <v>5</v>
+      </c>
+      <c r="L440" t="str">
+        <f t="shared" ref="L440:L448" si="76">CONCATENATE("{ player_id: """,G440,""", pos: ",H440,", points: ",I440,", money: ",J440,", pay: ",K440,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 562.5, money: 45, pay: 5},</v>
+      </c>
+      <c r="M440" t="str">
+        <f t="shared" ref="M440:M447" si="77">CONCATENATE("{ player_id: """,G440,""", pos: ",H440,", points: ",I440,", money: ",J440,", pay: ",K440,"},")</f>
+        <v>{ player_id: "Cana", pos: 1, points: 562.5, money: 45, pay: 5},</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="G441" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441">
+        <v>2</v>
+      </c>
+      <c r="I441">
+        <v>281.25</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>5</v>
+      </c>
+      <c r="L441" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Stecca", pos: 2, points: 281.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M441" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Stecca", pos: 2, points: 281.25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="G442" t="s">
+        <v>5</v>
+      </c>
+      <c r="H442">
+        <v>3</v>
+      </c>
+      <c r="I442">
+        <v>187.5</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>5</v>
+      </c>
+      <c r="L442" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Suarez", pos: 3, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M442" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Suarez", pos: 3, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="G443" t="s">
+        <v>27</v>
+      </c>
+      <c r="H443">
+        <v>4</v>
+      </c>
+      <c r="I443">
+        <v>140.62</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>5</v>
+      </c>
+      <c r="L443" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Ventu", pos: 4, points: 140.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M443" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Ventu", pos: 4, points: 140.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="G444" t="s">
+        <v>13</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="I444">
+        <v>112.5</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>5</v>
+      </c>
+      <c r="L444" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Ben", pos: 5, points: 112.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M444" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Ben", pos: 5, points: 112.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="G445" t="s">
+        <v>19</v>
+      </c>
+      <c r="H445">
+        <v>6</v>
+      </c>
+      <c r="I445">
+        <v>93.75</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>5</v>
+      </c>
+      <c r="L445" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Pipps", pos: 6, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M445" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Pipps", pos: 6, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="G446" t="s">
+        <v>10</v>
+      </c>
+      <c r="H446">
+        <v>7</v>
+      </c>
+      <c r="I446">
+        <v>80.31</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>5</v>
+      </c>
+      <c r="L446" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Matteo", pos: 7, points: 80.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M446" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Matteo", pos: 7, points: 80.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="G447" t="s">
+        <v>2</v>
+      </c>
+      <c r="H447">
+        <v>8</v>
+      </c>
+      <c r="I447">
+        <v>70.31</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>5</v>
+      </c>
+      <c r="L447" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Tiga", pos: 8, points: 70.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M447" t="str">
+        <f t="shared" si="77"/>
+        <v>{ player_id: "Tiga", pos: 8, points: 70.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="G448" t="s">
+        <v>15</v>
+      </c>
+      <c r="H448">
+        <v>9</v>
+      </c>
+      <c r="I448">
+        <v>62.5</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>5</v>
+      </c>
+      <c r="L448" t="str">
+        <f t="shared" si="76"/>
+        <v>{ player_id: "Luca Pa", pos: 9, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M448" t="str">
+        <f>CONCATENATE("{ player_id: """,G448,""", pos: ",H448,", points: ",I448,", money: ",J448,", pay: ",K448,"}")</f>
+        <v>{ player_id: "Luca Pa", pos: 9, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="449" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L449" t="s">
+        <v>108</v>
+      </c>
+      <c r="M449" t="s">
         <v>109</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="142">
   <si>
     <t>NickName</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>2015-01-16</t>
+  </si>
+  <si>
+    <t>2015-01-24</t>
   </si>
 </sst>
 </file>
@@ -1553,11 +1556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M449"/>
+  <dimension ref="A1:M457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L439" sqref="L439:L449"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L450" sqref="L450:L457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12814,11 +12817,209 @@
         <v>{ player_id: "Luca Pa", pos: 9, points: 62.5, money: 0, pay: 5}</v>
       </c>
     </row>
-    <row r="449" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L449" t="s">
         <v>108</v>
       </c>
       <c r="M449" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" s="4">
+        <v>140</v>
+      </c>
+      <c r="B450" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E450" s="4">
+        <v>1</v>
+      </c>
+      <c r="F450" s="4">
+        <v>0</v>
+      </c>
+      <c r="L450" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A450,",year: ",B450,",date: ISODate(""",C450,"""),details: {location: """,D450,""",tables: ",E450,",final: ",F450,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 140,year: 2015,date: ISODate("2015-01-24"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M450" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A450,"""},{$set: {year: ",B450,",date: ISODate(""",C450,"""),details: {location: """,D450,""",tables: ",E450,",final: ",F450,"},results: [")</f>
+        <v>db.tournaments.update({_id: "140"},{$set: {year: 2015,date: ISODate("2015-01-24"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G451" t="s">
+        <v>2</v>
+      </c>
+      <c r="H451">
+        <v>1</v>
+      </c>
+      <c r="I451">
+        <v>375</v>
+      </c>
+      <c r="J451">
+        <v>30</v>
+      </c>
+      <c r="K451">
+        <v>5</v>
+      </c>
+      <c r="L451" t="str">
+        <f>CONCATENATE("{ player_id: """,G451,""", pos: ",H451,", points: ",I451,", money: ",J451,", pay: ",K451,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+      <c r="M451" t="str">
+        <f t="shared" ref="M451:M455" si="78">CONCATENATE("{ player_id: """,G451,""", pos: ",H451,", points: ",I451,", money: ",J451,", pay: ",K451,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 375, money: 30, pay: 5},</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="G452" t="s">
+        <v>12</v>
+      </c>
+      <c r="H452">
+        <v>2</v>
+      </c>
+      <c r="I452">
+        <v>187.5</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>5</v>
+      </c>
+      <c r="L452" t="str">
+        <f>CONCATENATE("{ player_id: """,G452,""", pos: ",H452,", points: ",I452,", money: ",J452,", pay: ",K452,"},")</f>
+        <v>{ player_id: "Stecca", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M452" t="str">
+        <f t="shared" si="78"/>
+        <v>{ player_id: "Stecca", pos: 2, points: 187.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="G453" t="s">
+        <v>8</v>
+      </c>
+      <c r="H453">
+        <v>3</v>
+      </c>
+      <c r="I453">
+        <v>125</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>5</v>
+      </c>
+      <c r="L453" t="str">
+        <f>CONCATENATE("{ player_id: """,G453,""", pos: ",H453,", points: ",I453,", money: ",J453,", pay: ",K453,"},")</f>
+        <v>{ player_id: "Cana", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M453" t="str">
+        <f t="shared" si="78"/>
+        <v>{ player_id: "Cana", pos: 3, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+      <c r="G454" t="s">
+        <v>18</v>
+      </c>
+      <c r="H454">
+        <v>4</v>
+      </c>
+      <c r="I454">
+        <v>93.75</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>5</v>
+      </c>
+      <c r="L454" t="str">
+        <f>CONCATENATE("{ player_id: """,G454,""", pos: ",H454,", points: ",I454,", money: ",J454,", pay: ",K454,"},")</f>
+        <v>{ player_id: "Sangio", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M454" t="str">
+        <f t="shared" si="78"/>
+        <v>{ player_id: "Sangio", pos: 4, points: 93.75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="G455" t="s">
+        <v>10</v>
+      </c>
+      <c r="H455">
+        <v>5</v>
+      </c>
+      <c r="I455">
+        <v>75</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>5</v>
+      </c>
+      <c r="L455" t="str">
+        <f>CONCATENATE("{ player_id: """,G455,""", pos: ",H455,", points: ",I455,", money: ",J455,", pay: ",K455,"},")</f>
+        <v>{ player_id: "Matteo", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+      <c r="M455" t="str">
+        <f t="shared" si="78"/>
+        <v>{ player_id: "Matteo", pos: 5, points: 75, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="G456" t="s">
+        <v>13</v>
+      </c>
+      <c r="H456">
+        <v>6</v>
+      </c>
+      <c r="I456">
+        <v>62.5</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>5</v>
+      </c>
+      <c r="L456" t="str">
+        <f>CONCATENATE("{ player_id: """,G456,""", pos: ",H456,", points: ",I456,", money: ",J456,", pay: ",K456,"}")</f>
+        <v>{ player_id: "Ben", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M456" t="str">
+        <f>CONCATENATE("{ player_id: """,G456,""", pos: ",H456,", points: ",I456,", money: ",J456,", pay: ",K456,"}")</f>
+        <v>{ player_id: "Ben", pos: 6, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="L457" t="s">
+        <v>108</v>
+      </c>
+      <c r="M457" t="s">
         <v>109</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="143">
   <si>
     <t>NickName</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>2015-01-24</t>
+  </si>
+  <si>
+    <t>2015-01-30</t>
   </si>
 </sst>
 </file>
@@ -1556,11 +1559,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M457"/>
+  <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L450" sqref="L450:L457"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L458" sqref="L458:L467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13023,6 +13026,256 @@
         <v>109</v>
       </c>
     </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" s="4">
+        <v>141</v>
+      </c>
+      <c r="B458" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E458" s="4">
+        <v>1</v>
+      </c>
+      <c r="F458" s="4">
+        <v>0</v>
+      </c>
+      <c r="L458" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A458,",year: ",B458,",date: ISODate(""",C458,"""),details: {location: """,D458,""",tables: ",E458,",final: ",F458,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 141,year: 2015,date: ISODate("2015-01-30"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M458" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A458,"""},{$set: {year: ",B458,",date: ISODate(""",C458,"""),details: {location: """,D458,""",tables: ",E458,",final: ",F458,"},results: [")</f>
+        <v>db.tournaments.update({_id: "141"},{$set: {year: 2015,date: ISODate("2015-01-30"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G459" t="s">
+        <v>12</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>500</v>
+      </c>
+      <c r="J459">
+        <v>40</v>
+      </c>
+      <c r="K459">
+        <v>5</v>
+      </c>
+      <c r="L459" t="str">
+        <f t="shared" ref="L459:L466" si="79">CONCATENATE("{ player_id: """,G459,""", pos: ",H459,", points: ",I459,", money: ",J459,", pay: ",K459,"},")</f>
+        <v>{ player_id: "Stecca", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+      <c r="M459" t="str">
+        <f t="shared" ref="M459:M466" si="80">CONCATENATE("{ player_id: """,G459,""", pos: ",H459,", points: ",I459,", money: ",J459,", pay: ",K459,"},")</f>
+        <v>{ player_id: "Stecca", pos: 1, points: 500, money: 40, pay: 5},</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="G460" t="s">
+        <v>10</v>
+      </c>
+      <c r="H460">
+        <v>2</v>
+      </c>
+      <c r="I460">
+        <v>250</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>5</v>
+      </c>
+      <c r="L460" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Matteo", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+      <c r="M460" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Matteo", pos: 2, points: 250, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+      <c r="G461" t="s">
+        <v>19</v>
+      </c>
+      <c r="H461">
+        <v>3</v>
+      </c>
+      <c r="I461">
+        <v>166.62</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>5</v>
+      </c>
+      <c r="L461" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Pipps", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+      <c r="M461" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Pipps", pos: 3, points: 166.62, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="G462" t="s">
+        <v>8</v>
+      </c>
+      <c r="H462">
+        <v>4</v>
+      </c>
+      <c r="I462">
+        <v>125</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>5</v>
+      </c>
+      <c r="L462" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Cana", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M462" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Cana", pos: 4, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="G463" t="s">
+        <v>2</v>
+      </c>
+      <c r="H463">
+        <v>5</v>
+      </c>
+      <c r="I463">
+        <v>100</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>5</v>
+      </c>
+      <c r="L463" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Tiga", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+      <c r="M463" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Tiga", pos: 5, points: 100, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+      <c r="G464" t="s">
+        <v>27</v>
+      </c>
+      <c r="H464">
+        <v>6</v>
+      </c>
+      <c r="I464">
+        <v>83.31</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>5</v>
+      </c>
+      <c r="L464" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Ventu", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M464" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Ventu", pos: 6, points: 83.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="465" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
+      <c r="G465" t="s">
+        <v>5</v>
+      </c>
+      <c r="H465">
+        <v>7</v>
+      </c>
+      <c r="I465">
+        <v>71.37</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>5</v>
+      </c>
+      <c r="L465" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Suarez", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+      <c r="M465" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Suarez", pos: 7, points: 71.37, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="466" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
+      <c r="G466" t="s">
+        <v>9</v>
+      </c>
+      <c r="H466">
+        <v>8</v>
+      </c>
+      <c r="I466">
+        <v>62.5</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>5</v>
+      </c>
+      <c r="L466" t="str">
+        <f t="shared" si="79"/>
+        <v>{ player_id: "Busca", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M466" t="str">
+        <f t="shared" si="80"/>
+        <v>{ player_id: "Busca", pos: 8, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="467" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L467" t="s">
+        <v>108</v>
+      </c>
+      <c r="M467" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="144">
   <si>
     <t>NickName</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>2015-01-30</t>
+  </si>
+  <si>
+    <t>2015-02-06</t>
   </si>
 </sst>
 </file>
@@ -1559,11 +1562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M467"/>
+  <dimension ref="A1:M474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L458" sqref="L458:L467"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L468" sqref="L468:L474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13214,7 +13217,7 @@
         <v>{ player_id: "Ventu", pos: 6, points: 83.31, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="465" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="G465" t="s">
@@ -13241,7 +13244,7 @@
         <v>{ player_id: "Suarez", pos: 7, points: 71.37, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="466" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="G466" t="s">
@@ -13268,11 +13271,180 @@
         <v>{ player_id: "Busca", pos: 8, points: 62.5, money: 0, pay: 5},</v>
       </c>
     </row>
-    <row r="467" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L467" t="s">
         <v>108</v>
       </c>
       <c r="M467" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" s="4">
+        <v>142</v>
+      </c>
+      <c r="B468" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E468" s="4">
+        <v>1</v>
+      </c>
+      <c r="F468" s="4">
+        <v>0</v>
+      </c>
+      <c r="L468" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A468,",year: ",B468,",date: ISODate(""",C468,"""),details: {location: """,D468,""",tables: ",E468,",final: ",F468,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 142,year: 2015,date: ISODate("2015-02-06"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M468" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A468,"""},{$set: {year: ",B468,",date: ISODate(""",C468,"""),details: {location: """,D468,""",tables: ",E468,",final: ",F468,"},results: [")</f>
+        <v>db.tournaments.update({_id: "142"},{$set: {year: 2015,date: ISODate("2015-02-06"),details: {location: "Camilli",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G469" t="s">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+      <c r="I469">
+        <v>312.5</v>
+      </c>
+      <c r="J469">
+        <v>25</v>
+      </c>
+      <c r="K469">
+        <v>5</v>
+      </c>
+      <c r="L469" t="str">
+        <f t="shared" ref="L469:L473" si="81">CONCATENATE("{ player_id: """,G469,""", pos: ",H469,", points: ",I469,", money: ",J469,", pay: ",K469,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 312.5, money: 25, pay: 5},</v>
+      </c>
+      <c r="M469" t="str">
+        <f t="shared" ref="M469:M473" si="82">CONCATENATE("{ player_id: """,G469,""", pos: ",H469,", points: ",I469,", money: ",J469,", pay: ",K469,"},")</f>
+        <v>{ player_id: "Tiga", pos: 1, points: 312.5, money: 25, pay: 5},</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="G470" t="s">
+        <v>4</v>
+      </c>
+      <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
+        <v>156.25</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>5</v>
+      </c>
+      <c r="L470" t="str">
+        <f t="shared" si="81"/>
+        <v>{ player_id: "Ricci", pos: 2, points: 156.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M470" t="str">
+        <f t="shared" si="82"/>
+        <v>{ player_id: "Ricci", pos: 2, points: 156.25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="G471" t="s">
+        <v>8</v>
+      </c>
+      <c r="H471">
+        <v>3</v>
+      </c>
+      <c r="I471">
+        <v>104.12</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>5</v>
+      </c>
+      <c r="L471" t="str">
+        <f t="shared" si="81"/>
+        <v>{ player_id: "Cana", pos: 3, points: 104.12, money: 0, pay: 5},</v>
+      </c>
+      <c r="M471" t="str">
+        <f t="shared" si="82"/>
+        <v>{ player_id: "Cana", pos: 3, points: 104.12, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="G472" t="s">
+        <v>10</v>
+      </c>
+      <c r="H472">
+        <v>4</v>
+      </c>
+      <c r="I472">
+        <v>78.12</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>5</v>
+      </c>
+      <c r="L472" t="str">
+        <f t="shared" si="81"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 78.12, money: 0, pay: 5},</v>
+      </c>
+      <c r="M472" t="str">
+        <f t="shared" si="82"/>
+        <v>{ player_id: "Matteo", pos: 4, points: 78.12, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="G473" t="s">
+        <v>12</v>
+      </c>
+      <c r="H473">
+        <v>5</v>
+      </c>
+      <c r="I473">
+        <v>62.5</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>5</v>
+      </c>
+      <c r="L473" t="str">
+        <f t="shared" si="81"/>
+        <v>{ player_id: "Stecca", pos: 5, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M473" t="str">
+        <f t="shared" si="82"/>
+        <v>{ player_id: "Stecca", pos: 5, points: 62.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L474" t="s">
+        <v>108</v>
+      </c>
+      <c r="M474" t="s">
         <v>109</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="145">
   <si>
     <t>NickName</t>
   </si>
@@ -447,12 +447,18 @@
   </si>
   <si>
     <t>2015-02-06</t>
+  </si>
+  <si>
+    <t>2015-02-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,13 +488,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,18 +1570,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M474"/>
+  <dimension ref="A1:M486"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L468" sqref="L468:L474"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L475" sqref="L475:L486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="10.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="69.5703125" customWidth="1"/>
     <col min="13" max="13" width="129.85546875" bestFit="1" customWidth="1"/>
@@ -1586,7 +1595,7 @@
       <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
@@ -1627,7 +1636,7 @@
       <c r="B2" s="5">
         <v>2014</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1674,7 +1683,6 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="G4" t="s">
         <v>8</v>
@@ -1701,7 +1709,6 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="G5" t="s">
         <v>13</v>
@@ -1728,7 +1735,6 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="G6" t="s">
         <v>2</v>
@@ -1755,7 +1761,6 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="G7" t="s">
         <v>26</v>
@@ -1782,7 +1787,6 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="G8" t="s">
         <v>12</v>
@@ -1809,7 +1813,6 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="G9" t="s">
         <v>14</v>
@@ -1850,7 +1853,7 @@
       <c r="B11" s="5">
         <v>2014</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1897,7 +1900,6 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="G13" t="s">
         <v>1</v>
@@ -1924,7 +1926,6 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="G14" t="s">
         <v>6</v>
@@ -1951,7 +1952,6 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="G15" t="s">
         <v>2</v>
@@ -1978,7 +1978,6 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="G16" t="s">
         <v>3</v>
@@ -2005,7 +2004,6 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="G17" t="s">
         <v>5</v>
@@ -2032,7 +2030,6 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="G18" t="s">
         <v>15</v>
@@ -2059,7 +2056,6 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="G19" t="s">
         <v>11</v>
@@ -2100,7 +2096,7 @@
       <c r="B21" s="5">
         <v>2014</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2147,7 +2143,6 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="G23" t="s">
         <v>22</v>
@@ -2174,7 +2169,6 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" t="s">
         <v>23</v>
@@ -2201,7 +2195,6 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" t="s">
         <v>24</v>
@@ -2228,7 +2221,6 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" t="s">
         <v>28</v>
@@ -2255,7 +2247,6 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="G27" t="s">
         <v>31</v>
@@ -2296,7 +2287,7 @@
       <c r="B29" s="5">
         <v>2014</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2343,7 +2334,6 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="G31" t="s">
         <v>8</v>
@@ -2370,7 +2360,6 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="G32" t="s">
         <v>20</v>
@@ -2397,7 +2386,6 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" t="s">
         <v>1</v>
@@ -2424,7 +2412,6 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="G34" t="s">
         <v>5</v>
@@ -2451,7 +2438,6 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" t="s">
         <v>4</v>
@@ -2478,7 +2464,6 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="G36" t="s">
         <v>9</v>
@@ -2505,7 +2490,6 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="G37" t="s">
         <v>6</v>
@@ -2546,7 +2530,7 @@
       <c r="B39" s="5">
         <v>2014</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2593,7 +2577,6 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="G41" t="s">
         <v>8</v>
@@ -2620,7 +2603,6 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="G42" t="s">
         <v>2</v>
@@ -2647,7 +2629,6 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="G43" t="s">
         <v>13</v>
@@ -2674,7 +2655,6 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="G44" t="s">
         <v>18</v>
@@ -2701,7 +2681,6 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="G45" t="s">
         <v>6</v>
@@ -2728,7 +2707,6 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="G46" t="s">
         <v>1</v>
@@ -2769,7 +2747,7 @@
       <c r="B48" s="5">
         <v>2014</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2816,7 +2794,6 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="G50" t="s">
         <v>9</v>
@@ -2843,7 +2820,6 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="G51" t="s">
         <v>2</v>
@@ -2870,7 +2846,6 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="G52" t="s">
         <v>14</v>
@@ -2897,7 +2872,6 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="G53" t="s">
         <v>20</v>
@@ -2924,7 +2898,6 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="G54" t="s">
         <v>6</v>
@@ -2951,7 +2924,6 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="G55" t="s">
         <v>5</v>
@@ -2978,7 +2950,6 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="G56" t="s">
         <v>8</v>
@@ -3019,7 +2990,7 @@
       <c r="B58" s="5">
         <v>2014</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3066,7 +3037,6 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="G60" t="s">
         <v>9</v>
@@ -3093,7 +3063,6 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="G61" t="s">
         <v>2</v>
@@ -3134,7 +3103,7 @@
       <c r="B63" s="5">
         <v>2014</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3181,7 +3150,6 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="G65" t="s">
         <v>14</v>
@@ -3208,7 +3176,6 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="G66" t="s">
         <v>3</v>
@@ -3235,7 +3202,6 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="G67" t="s">
         <v>2</v>
@@ -3262,7 +3228,6 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="G68" t="s">
         <v>9</v>
@@ -3303,7 +3268,7 @@
       <c r="B70" s="5">
         <v>2014</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3350,7 +3315,6 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="G72" t="s">
         <v>8</v>
@@ -3377,7 +3341,6 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="G73" t="s">
         <v>5</v>
@@ -3404,7 +3367,6 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="G74" t="s">
         <v>2</v>
@@ -3445,7 +3407,7 @@
       <c r="B76" s="5">
         <v>2014</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D76" t="s">
@@ -3469,7 +3431,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="3"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3500,7 +3462,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="3"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -3531,7 +3493,7 @@
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="3"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3562,7 +3524,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="3"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3593,7 +3555,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="3"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -3624,7 +3586,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="3"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -3655,7 +3617,7 @@
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="3"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3686,7 +3648,7 @@
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="3"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -3717,7 +3679,7 @@
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="3"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -3748,7 +3710,7 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="3"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3779,7 +3741,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="3"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -3810,7 +3772,7 @@
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="3"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -3839,7 +3801,6 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="L89" t="s">
         <v>108</v>
@@ -3855,7 +3816,7 @@
       <c r="B90" s="5">
         <v>2014</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -3902,7 +3863,6 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="G92" t="s">
         <v>13</v>
@@ -3929,7 +3889,6 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="G93" t="s">
         <v>2</v>
@@ -3956,7 +3915,6 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="G94" t="s">
         <v>14</v>
@@ -3983,7 +3941,6 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="L95" t="s">
         <v>108</v>
@@ -3999,7 +3956,7 @@
       <c r="B96" s="5">
         <v>2014</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -4046,7 +4003,6 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="G98" t="s">
         <v>1</v>
@@ -4073,7 +4029,6 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="G99" t="s">
         <v>14</v>
@@ -4100,7 +4055,6 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="G100" t="s">
         <v>8</v>
@@ -4127,7 +4081,6 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="G101" t="s">
         <v>6</v>
@@ -4154,7 +4107,6 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="G102" t="s">
         <v>5</v>
@@ -4181,7 +4133,6 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="L103" t="s">
         <v>108</v>
@@ -4197,7 +4148,7 @@
       <c r="B104" s="5">
         <v>2014</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -4244,7 +4195,6 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="G106" t="s">
         <v>10</v>
@@ -4271,7 +4221,6 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="G107" t="s">
         <v>8</v>
@@ -4298,7 +4247,6 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="G108" t="s">
         <v>2</v>
@@ -4325,7 +4273,6 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="G109" t="s">
         <v>18</v>
@@ -4352,7 +4299,6 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="G110" t="s">
         <v>11</v>
@@ -4379,7 +4325,6 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="G111" t="s">
         <v>9</v>
@@ -4406,7 +4351,6 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="G112" t="s">
         <v>6</v>
@@ -4433,7 +4377,6 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="G113" t="s">
         <v>12</v>
@@ -4460,7 +4403,6 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="G114" t="s">
         <v>14</v>
@@ -4487,7 +4429,6 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="L115" t="s">
         <v>108</v>
@@ -4503,7 +4444,7 @@
       <c r="B116" s="5">
         <v>2014</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -4550,7 +4491,6 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="G118" t="s">
         <v>8</v>
@@ -4577,7 +4517,6 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="G119" t="s">
         <v>12</v>
@@ -4604,7 +4543,6 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="G120" t="s">
         <v>5</v>
@@ -4631,7 +4569,6 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="G121" t="s">
         <v>7</v>
@@ -4658,7 +4595,6 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="G122" t="s">
         <v>10</v>
@@ -4685,7 +4621,6 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="G123" t="s">
         <v>9</v>
@@ -4712,7 +4647,6 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="L124" t="s">
         <v>108</v>
@@ -4728,7 +4662,7 @@
       <c r="B125" s="5">
         <v>2014</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -4775,7 +4709,6 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="G127" t="s">
         <v>11</v>
@@ -4802,7 +4735,6 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="G128" t="s">
         <v>4</v>
@@ -4829,7 +4761,6 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="G129" t="s">
         <v>5</v>
@@ -4856,7 +4787,6 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="G130" t="s">
         <v>10</v>
@@ -4883,7 +4813,6 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="G131" t="s">
         <v>1</v>
@@ -4910,7 +4839,6 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="L132" t="s">
         <v>108</v>
@@ -4926,7 +4854,7 @@
       <c r="B133" s="5">
         <v>2014</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -4973,7 +4901,6 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="G135" t="s">
         <v>12</v>
@@ -5000,7 +4927,6 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="G136" t="s">
         <v>10</v>
@@ -5027,7 +4953,6 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="G137" t="s">
         <v>2</v>
@@ -5054,7 +4979,6 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="G138" t="s">
         <v>13</v>
@@ -5081,7 +5005,6 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="G139" t="s">
         <v>5</v>
@@ -5108,7 +5031,6 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="L140" t="s">
         <v>108</v>
@@ -5124,7 +5046,7 @@
       <c r="B141" s="5">
         <v>2014</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5171,7 +5093,6 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="G143" t="s">
         <v>10</v>
@@ -5198,7 +5119,6 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="G144" t="s">
         <v>5</v>
@@ -5225,7 +5145,6 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="G145" t="s">
         <v>9</v>
@@ -5252,7 +5171,6 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="G146" t="s">
         <v>14</v>
@@ -5279,7 +5197,6 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="G147" t="s">
         <v>12</v>
@@ -5306,7 +5223,6 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="G148" t="s">
         <v>2</v>
@@ -5333,7 +5249,6 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="G149" t="s">
         <v>6</v>
@@ -5360,7 +5275,6 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="L150" t="s">
         <v>108</v>
@@ -5376,7 +5290,7 @@
       <c r="B151" s="5">
         <v>2014</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -5423,7 +5337,6 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="G153" t="s">
         <v>5</v>
@@ -5450,7 +5363,6 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="G154" t="s">
         <v>9</v>
@@ -5477,7 +5389,6 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="G155" t="s">
         <v>21</v>
@@ -5504,7 +5415,6 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="G156" t="s">
         <v>12</v>
@@ -5531,7 +5441,6 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="G157" t="s">
         <v>10</v>
@@ -5558,7 +5467,6 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="G158" t="s">
         <v>8</v>
@@ -5585,7 +5493,6 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="G159" t="s">
         <v>6</v>
@@ -5612,7 +5519,6 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="G160" t="s">
         <v>7</v>
@@ -5639,7 +5545,6 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="G161" t="s">
         <v>14</v>
@@ -5666,7 +5571,6 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="G162" t="s">
         <v>11</v>
@@ -5693,7 +5597,6 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="L163" t="s">
         <v>108</v>
@@ -5709,7 +5612,7 @@
       <c r="B164" s="5">
         <v>2014</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -5756,7 +5659,6 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="G166" t="s">
         <v>12</v>
@@ -5783,7 +5685,6 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="G167" t="s">
         <v>1</v>
@@ -5810,7 +5711,6 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="G168" t="s">
         <v>9</v>
@@ -5837,7 +5737,6 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="G169" t="s">
         <v>2</v>
@@ -5864,7 +5763,6 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="G170" t="s">
         <v>5</v>
@@ -5891,7 +5789,6 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="G171" t="s">
         <v>16</v>
@@ -5918,7 +5815,6 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="G172" t="s">
         <v>8</v>
@@ -5945,7 +5841,6 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="L173" t="s">
         <v>108</v>
@@ -5961,7 +5856,7 @@
       <c r="B174" s="5">
         <v>2014</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -6008,7 +5903,6 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="G176" t="s">
         <v>2</v>
@@ -6035,7 +5929,6 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="G177" t="s">
         <v>8</v>
@@ -6062,7 +5955,6 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="G178" t="s">
         <v>13</v>
@@ -6089,7 +5981,6 @@
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="G179" t="s">
         <v>4</v>
@@ -6116,7 +6007,6 @@
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="G180" t="s">
         <v>12</v>
@@ -6143,7 +6033,6 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="G181" t="s">
         <v>5</v>
@@ -6170,7 +6059,6 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="G182" t="s">
         <v>11</v>
@@ -6197,7 +6085,6 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="G183" t="s">
         <v>9</v>
@@ -6224,7 +6111,6 @@
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="L184" t="s">
         <v>108</v>
@@ -6240,7 +6126,7 @@
       <c r="B185" s="5">
         <v>2014</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -6287,7 +6173,6 @@
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="G187" t="s">
         <v>9</v>
@@ -6314,7 +6199,6 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="G188" t="s">
         <v>8</v>
@@ -6341,7 +6225,6 @@
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="G189" t="s">
         <v>12</v>
@@ -6368,7 +6251,6 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="G190" t="s">
         <v>2</v>
@@ -6395,7 +6277,6 @@
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="G191" t="s">
         <v>5</v>
@@ -6422,7 +6303,6 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="L192" t="s">
         <v>108</v>
@@ -6438,7 +6318,7 @@
       <c r="B193" s="5">
         <v>2014</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -6485,7 +6365,6 @@
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="G195" t="s">
         <v>18</v>
@@ -6512,7 +6391,6 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="G196" t="s">
         <v>4</v>
@@ -6539,7 +6417,6 @@
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="G197" t="s">
         <v>25</v>
@@ -6566,7 +6443,6 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="G198" t="s">
         <v>13</v>
@@ -6593,7 +6469,6 @@
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="G199" t="s">
         <v>32</v>
@@ -6620,7 +6495,6 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="L200" t="s">
         <v>108</v>
@@ -6636,7 +6510,7 @@
       <c r="B201" s="5">
         <v>2014</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -6683,7 +6557,6 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="G203" t="s">
         <v>12</v>
@@ -6710,7 +6583,6 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="G204" t="s">
         <v>5</v>
@@ -6737,7 +6609,6 @@
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="G205" t="s">
         <v>2</v>
@@ -6764,7 +6635,6 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="G206" t="s">
         <v>29</v>
@@ -6791,7 +6661,6 @@
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="G207" t="s">
         <v>10</v>
@@ -6818,7 +6687,6 @@
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="L208" t="s">
         <v>108</v>
@@ -6834,7 +6702,7 @@
       <c r="B209" s="5">
         <v>2014</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -6881,7 +6749,6 @@
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="G211" t="s">
         <v>5</v>
@@ -6908,7 +6775,6 @@
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="G212" t="s">
         <v>12</v>
@@ -6935,7 +6801,6 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="G213" t="s">
         <v>4</v>
@@ -6962,7 +6827,6 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="G214" t="s">
         <v>11</v>
@@ -6989,7 +6853,6 @@
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="G215" t="s">
         <v>8</v>
@@ -7016,7 +6879,6 @@
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="G216" t="s">
         <v>10</v>
@@ -7043,7 +6905,6 @@
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="G217" t="s">
         <v>15</v>
@@ -7070,7 +6931,6 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="G218" t="s">
         <v>1</v>
@@ -7097,7 +6957,6 @@
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="G219" t="s">
         <v>2</v>
@@ -7124,7 +6983,6 @@
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="L220" t="s">
         <v>108</v>
@@ -7140,7 +6998,7 @@
       <c r="B221" s="5">
         <v>2014</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -7187,7 +7045,6 @@
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="G223" t="s">
         <v>11</v>
@@ -7214,7 +7071,6 @@
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="G224" t="s">
         <v>5</v>
@@ -7241,7 +7097,6 @@
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="G225" t="s">
         <v>8</v>
@@ -7268,7 +7123,6 @@
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="G226" t="s">
         <v>12</v>
@@ -7295,7 +7149,6 @@
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="G227" t="s">
         <v>4</v>
@@ -7322,7 +7175,6 @@
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="L228" t="s">
         <v>108</v>
@@ -7338,7 +7190,7 @@
       <c r="B229" s="5">
         <v>2014</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -7385,7 +7237,6 @@
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="G231" t="s">
         <v>9</v>
@@ -7412,7 +7263,6 @@
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="G232" t="s">
         <v>16</v>
@@ -7439,7 +7289,6 @@
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="G233" t="s">
         <v>5</v>
@@ -7466,7 +7315,6 @@
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="G234" t="s">
         <v>12</v>
@@ -7493,7 +7341,6 @@
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="G235" t="s">
         <v>2</v>
@@ -7520,7 +7367,6 @@
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="L236" t="s">
         <v>108</v>
@@ -7536,7 +7382,7 @@
       <c r="B237" s="5">
         <v>2014</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -7583,7 +7429,6 @@
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="G239" t="s">
         <v>2</v>
@@ -7610,7 +7455,6 @@
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="G240" t="s">
         <v>12</v>
@@ -7637,7 +7481,6 @@
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="G241" t="s">
         <v>8</v>
@@ -7664,7 +7507,6 @@
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="G242" t="s">
         <v>13</v>
@@ -7691,7 +7533,6 @@
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="L243" t="s">
         <v>108</v>
@@ -7707,7 +7548,7 @@
       <c r="B244" s="5">
         <v>2014</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -7754,7 +7595,6 @@
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="G246" t="s">
         <v>5</v>
@@ -7781,7 +7621,6 @@
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="G247" t="s">
         <v>11</v>
@@ -7808,7 +7647,6 @@
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="G248" t="s">
         <v>27</v>
@@ -7835,7 +7673,6 @@
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="G249" t="s">
         <v>10</v>
@@ -7862,7 +7699,6 @@
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="L250" t="s">
         <v>108</v>
@@ -7878,7 +7714,7 @@
       <c r="B251" s="5">
         <v>2014</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -7925,7 +7761,6 @@
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="G253" t="s">
         <v>9</v>
@@ -7952,7 +7787,6 @@
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="G254" t="s">
         <v>13</v>
@@ -7979,7 +7813,6 @@
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="G255" t="s">
         <v>17</v>
@@ -8006,7 +7839,6 @@
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="G256" t="s">
         <v>18</v>
@@ -8033,7 +7865,6 @@
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="G257" t="s">
         <v>5</v>
@@ -8060,7 +7891,6 @@
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="G258" t="s">
         <v>30</v>
@@ -8087,7 +7917,6 @@
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="G259" t="s">
         <v>19</v>
@@ -8114,7 +7943,6 @@
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="L260" t="s">
         <v>108</v>
@@ -8130,7 +7958,7 @@
       <c r="B261" s="5">
         <v>2014</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -8177,7 +8005,6 @@
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="G263" t="s">
         <v>2</v>
@@ -8204,7 +8031,6 @@
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="G264" t="s">
         <v>10</v>
@@ -8231,7 +8057,6 @@
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="G265" t="s">
         <v>19</v>
@@ -8258,7 +8083,6 @@
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="L266" t="s">
         <v>108</v>
@@ -8274,7 +8098,7 @@
       <c r="B267" s="5">
         <v>2014</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D267" s="1" t="s">
@@ -8321,7 +8145,6 @@
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="G269" t="s">
         <v>12</v>
@@ -8348,7 +8171,6 @@
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="G270" t="s">
         <v>1</v>
@@ -8375,7 +8197,6 @@
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="G271" t="s">
         <v>8</v>
@@ -8402,7 +8223,6 @@
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="G272" t="s">
         <v>11</v>
@@ -8429,7 +8249,6 @@
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="G273" t="s">
         <v>19</v>
@@ -8456,7 +8275,6 @@
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="L274" t="s">
         <v>108</v>
@@ -8472,7 +8290,7 @@
       <c r="B275" s="5">
         <v>2014</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -8519,7 +8337,6 @@
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="G277" t="s">
         <v>19</v>
@@ -8546,7 +8363,6 @@
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="G278" t="s">
         <v>16</v>
@@ -8573,7 +8389,6 @@
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="G279" t="s">
         <v>13</v>
@@ -8600,7 +8415,6 @@
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="G280" t="s">
         <v>2</v>
@@ -8627,7 +8441,6 @@
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="G281" t="s">
         <v>12</v>
@@ -8654,7 +8467,6 @@
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="G282" t="s">
         <v>5</v>
@@ -8681,7 +8493,6 @@
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="G283" t="s">
         <v>8</v>
@@ -8708,7 +8519,6 @@
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="G284" t="s">
         <v>14</v>
@@ -8735,7 +8545,6 @@
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="L285" t="s">
         <v>108</v>
@@ -8751,7 +8560,7 @@
       <c r="B286" s="5">
         <v>2014</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -8798,7 +8607,6 @@
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="G288" t="s">
         <v>19</v>
@@ -8825,7 +8633,6 @@
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="G289" t="s">
         <v>13</v>
@@ -8852,7 +8659,6 @@
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="G290" t="s">
         <v>14</v>
@@ -8879,7 +8685,6 @@
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="G291" t="s">
         <v>1</v>
@@ -8906,7 +8711,6 @@
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="G292" t="s">
         <v>12</v>
@@ -8933,7 +8737,6 @@
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="G293" t="s">
         <v>8</v>
@@ -8960,7 +8763,6 @@
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="G294" t="s">
         <v>10</v>
@@ -8987,7 +8789,6 @@
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="G295" t="s">
         <v>9</v>
@@ -9028,7 +8829,7 @@
       <c r="B297" s="5">
         <v>2014</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D297" s="1" t="s">
@@ -9075,7 +8876,6 @@
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="G299" t="s">
         <v>9</v>
@@ -9102,7 +8902,6 @@
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="G300" t="s">
         <v>1</v>
@@ -9129,7 +8928,6 @@
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="G301" t="s">
         <v>13</v>
@@ -9156,7 +8954,6 @@
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="G302" t="s">
         <v>10</v>
@@ -9183,7 +8980,6 @@
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="G303" t="s">
         <v>110</v>
@@ -9210,7 +9006,6 @@
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="G304" t="s">
         <v>8</v>
@@ -9237,7 +9032,6 @@
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="G305" t="s">
         <v>11</v>
@@ -9264,7 +9058,6 @@
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="G306" t="s">
         <v>19</v>
@@ -9305,7 +9098,7 @@
       <c r="B308" s="5">
         <v>2014</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D308" s="1" t="s">
@@ -9352,7 +9145,6 @@
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="G310" t="s">
         <v>12</v>
@@ -9379,7 +9171,6 @@
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="G311" t="s">
         <v>8</v>
@@ -9406,7 +9197,6 @@
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="G312" t="s">
         <v>5</v>
@@ -9433,7 +9223,6 @@
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="G313" t="s">
         <v>9</v>
@@ -9460,7 +9249,6 @@
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="G314" t="s">
         <v>2</v>
@@ -9487,7 +9275,6 @@
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="G315" t="s">
         <v>14</v>
@@ -9514,7 +9301,6 @@
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="G316" t="s">
         <v>10</v>
@@ -9555,7 +9341,7 @@
       <c r="B318" s="5">
         <v>2014</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D318" s="1" t="s">
@@ -9601,7 +9387,6 @@
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="G320" t="s">
         <v>18</v>
@@ -9628,7 +9413,6 @@
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="G321" t="s">
         <v>12</v>
@@ -9655,7 +9439,6 @@
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="G322" t="s">
         <v>5</v>
@@ -9682,7 +9465,6 @@
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="G323" t="s">
         <v>9</v>
@@ -9709,7 +9491,6 @@
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="G324" t="s">
         <v>13</v>
@@ -9736,7 +9517,6 @@
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="G325" t="s">
         <v>6</v>
@@ -9763,7 +9543,6 @@
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="G326" t="s">
         <v>19</v>
@@ -9804,7 +9583,7 @@
       <c r="B328" s="5">
         <v>2014</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D328" s="1" t="s">
@@ -9851,7 +9630,6 @@
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="G330" t="s">
         <v>9</v>
@@ -9878,7 +9656,6 @@
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="G331" t="s">
         <v>10</v>
@@ -9905,7 +9682,6 @@
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="G332" t="s">
         <v>8</v>
@@ -9932,7 +9708,6 @@
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="G333" t="s">
         <v>2</v>
@@ -9959,7 +9734,6 @@
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="G334" t="s">
         <v>19</v>
@@ -9986,7 +9760,6 @@
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="L335" t="s">
         <v>108</v>
@@ -10002,7 +9775,7 @@
       <c r="B336" s="5">
         <v>2014</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D336" s="1" t="s">
@@ -10049,7 +9822,6 @@
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="G338" t="s">
         <v>9</v>
@@ -10076,7 +9848,6 @@
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="G339" t="s">
         <v>2</v>
@@ -10103,7 +9874,6 @@
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="G340" t="s">
         <v>8</v>
@@ -10130,7 +9900,6 @@
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="G341" t="s">
         <v>12</v>
@@ -10171,7 +9940,7 @@
       <c r="B343" s="5">
         <v>2014</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D343" s="1" t="s">
@@ -10218,7 +9987,6 @@
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="G345" t="s">
         <v>6</v>
@@ -10245,7 +10013,6 @@
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="G346" t="s">
         <v>3</v>
@@ -10272,7 +10039,6 @@
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="G347" t="s">
         <v>10</v>
@@ -10299,7 +10065,6 @@
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="G348" t="s">
         <v>8</v>
@@ -10326,7 +10091,6 @@
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="G349" t="s">
         <v>2</v>
@@ -10353,7 +10117,6 @@
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="G350" t="s">
         <v>19</v>
@@ -10380,7 +10143,6 @@
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="G351" t="s">
         <v>12</v>
@@ -10421,7 +10183,7 @@
       <c r="B353" s="5">
         <v>2014</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D353" s="1" t="s">
@@ -10468,7 +10230,6 @@
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="G355" t="s">
         <v>8</v>
@@ -10495,7 +10256,6 @@
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="G356" t="s">
         <v>6</v>
@@ -10522,7 +10282,6 @@
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="G357" t="s">
         <v>19</v>
@@ -10549,7 +10308,6 @@
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="G358" t="s">
         <v>5</v>
@@ -10590,7 +10348,7 @@
       <c r="B360" s="5">
         <v>2014</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D360" s="1" t="s">
@@ -10637,7 +10395,6 @@
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="G362" t="s">
         <v>8</v>
@@ -10664,7 +10421,6 @@
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="G363" t="s">
         <v>14</v>
@@ -10691,7 +10447,6 @@
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="G364" t="s">
         <v>5</v>
@@ -10718,7 +10473,6 @@
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="G365" t="s">
         <v>2</v>
@@ -10745,7 +10499,6 @@
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="G366" t="s">
         <v>10</v>
@@ -10772,7 +10525,6 @@
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="G367" t="s">
         <v>6</v>
@@ -10799,7 +10551,6 @@
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="L368" t="s">
         <v>108</v>
@@ -10815,7 +10566,7 @@
       <c r="B369" s="5">
         <v>2014</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D369" s="1" t="s">
@@ -10862,7 +10613,6 @@
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="G371" t="s">
         <v>2</v>
@@ -10889,7 +10639,6 @@
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="G372" t="s">
         <v>5</v>
@@ -10916,7 +10665,6 @@
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="G373" t="s">
         <v>12</v>
@@ -10943,7 +10691,6 @@
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="G374" t="s">
         <v>8</v>
@@ -10970,7 +10717,6 @@
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="G375" t="s">
         <v>11</v>
@@ -10997,7 +10743,6 @@
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="L376" t="s">
         <v>108</v>
@@ -11013,7 +10758,7 @@
       <c r="B377" s="5">
         <v>2014</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D377" s="1" t="s">
@@ -11060,7 +10805,6 @@
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="G379" t="s">
         <v>8</v>
@@ -11087,7 +10831,6 @@
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="G380" t="s">
         <v>2</v>
@@ -11114,7 +10857,6 @@
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="G381" t="s">
         <v>12</v>
@@ -11141,7 +10883,6 @@
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="L382" t="s">
         <v>108</v>
@@ -11157,7 +10898,7 @@
       <c r="B383" s="5">
         <v>2014</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D383" s="1" t="s">
@@ -11204,7 +10945,6 @@
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="G385" t="s">
         <v>13</v>
@@ -11231,7 +10971,6 @@
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="G386" t="s">
         <v>6</v>
@@ -11258,7 +10997,6 @@
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="G387" t="s">
         <v>2</v>
@@ -11285,7 +11023,6 @@
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="G388" t="s">
         <v>19</v>
@@ -11312,7 +11049,6 @@
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="G389" t="s">
         <v>12</v>
@@ -11339,7 +11075,6 @@
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="G390" t="s">
         <v>10</v>
@@ -11366,7 +11101,6 @@
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="G391" t="s">
         <v>14</v>
@@ -11407,7 +11141,7 @@
       <c r="B393" s="5">
         <v>2014</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C393" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D393" s="1" t="s">
@@ -11454,7 +11188,6 @@
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="G395" t="s">
         <v>2</v>
@@ -11481,7 +11214,6 @@
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="G396" t="s">
         <v>12</v>
@@ -11508,7 +11240,6 @@
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="G397" t="s">
         <v>10</v>
@@ -11535,7 +11266,6 @@
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="G398" t="s">
         <v>9</v>
@@ -11562,7 +11292,6 @@
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="G399" t="s">
         <v>15</v>
@@ -11589,7 +11318,6 @@
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="G400" t="s">
         <v>11</v>
@@ -11616,7 +11344,6 @@
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="G401" t="s">
         <v>5</v>
@@ -11668,7 +11395,6 @@
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="G403" t="s">
         <v>6</v>
@@ -11695,7 +11421,6 @@
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="G404" t="s">
         <v>1</v>
@@ -11836,7 +11561,7 @@
       <c r="B410" s="5">
         <v>2015</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D410" s="1" t="s">
@@ -11883,7 +11608,6 @@
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="G412" t="s">
         <v>5</v>
@@ -11910,7 +11634,6 @@
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="G413" t="s">
         <v>10</v>
@@ -11937,7 +11660,6 @@
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="G414" t="s">
         <v>12</v>
@@ -11964,7 +11686,6 @@
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="G415" t="s">
         <v>21</v>
@@ -11991,7 +11712,6 @@
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="G416" t="s">
         <v>19</v>
@@ -12018,7 +11738,6 @@
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="G417" t="s">
         <v>9</v>
@@ -12045,7 +11764,6 @@
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="G418" t="s">
         <v>6</v>
@@ -12072,7 +11790,6 @@
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="G419" t="s">
         <v>8</v>
@@ -12113,7 +11830,7 @@
       <c r="B421" s="5">
         <v>2015</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C421" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D421" s="1" t="s">
@@ -12160,7 +11877,6 @@
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="G423" t="s">
         <v>12</v>
@@ -12187,7 +11903,6 @@
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="G424" t="s">
         <v>5</v>
@@ -12214,7 +11929,6 @@
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="G425" t="s">
         <v>16</v>
@@ -12241,7 +11955,6 @@
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="G426" t="s">
         <v>2</v>
@@ -12268,7 +11981,6 @@
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="G427" t="s">
         <v>13</v>
@@ -12295,7 +12007,6 @@
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="L428" t="s">
         <v>108</v>
@@ -12311,7 +12022,7 @@
       <c r="B429" s="5">
         <v>2015</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D429" s="1" t="s">
@@ -12358,7 +12069,6 @@
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="G431" t="s">
         <v>8</v>
@@ -12385,7 +12095,6 @@
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="G432" t="s">
         <v>138</v>
@@ -12412,7 +12121,6 @@
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="G433" t="s">
         <v>139</v>
@@ -12439,7 +12147,6 @@
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="G434" t="s">
         <v>18</v>
@@ -12466,7 +12173,6 @@
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="G435" t="s">
         <v>28</v>
@@ -12493,7 +12199,6 @@
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="G436" t="s">
         <v>31</v>
@@ -12520,7 +12225,6 @@
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="G437" t="s">
         <v>24</v>
@@ -12561,7 +12265,7 @@
       <c r="B439" s="5">
         <v>2015</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C439" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D439" s="1" t="s">
@@ -12608,7 +12312,6 @@
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="G441" t="s">
         <v>12</v>
@@ -12635,7 +12338,6 @@
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="G442" t="s">
         <v>5</v>
@@ -12662,7 +12364,6 @@
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="G443" t="s">
         <v>27</v>
@@ -12689,7 +12390,6 @@
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="G444" t="s">
         <v>13</v>
@@ -12716,7 +12416,6 @@
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="G445" t="s">
         <v>19</v>
@@ -12743,7 +12442,6 @@
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="G446" t="s">
         <v>10</v>
@@ -12770,7 +12468,6 @@
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="G447" t="s">
         <v>2</v>
@@ -12797,7 +12494,6 @@
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="G448" t="s">
         <v>15</v>
@@ -12838,7 +12534,7 @@
       <c r="B450" s="5">
         <v>2015</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="C450" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D450" s="1" t="s">
@@ -12885,7 +12581,6 @@
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="G452" t="s">
         <v>12</v>
@@ -12912,7 +12607,6 @@
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="G453" t="s">
         <v>8</v>
@@ -12939,7 +12633,6 @@
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="G454" t="s">
         <v>18</v>
@@ -12966,7 +12659,6 @@
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="G455" t="s">
         <v>10</v>
@@ -12993,7 +12685,6 @@
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="G456" t="s">
         <v>13</v>
@@ -13020,7 +12711,6 @@
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="L457" t="s">
         <v>108</v>
@@ -13036,7 +12726,7 @@
       <c r="B458" s="5">
         <v>2015</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C458" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -13083,7 +12773,6 @@
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="G460" t="s">
         <v>10</v>
@@ -13110,7 +12799,6 @@
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="G461" t="s">
         <v>19</v>
@@ -13137,7 +12825,6 @@
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="G462" t="s">
         <v>8</v>
@@ -13164,7 +12851,6 @@
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="G463" t="s">
         <v>2</v>
@@ -13191,7 +12877,6 @@
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="G464" t="s">
         <v>27</v>
@@ -13218,7 +12903,6 @@
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="G465" t="s">
         <v>5</v>
@@ -13245,7 +12929,6 @@
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="G466" t="s">
         <v>9</v>
@@ -13286,7 +12969,7 @@
       <c r="B468" s="5">
         <v>2015</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C468" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D468" s="1" t="s">
@@ -13333,7 +13016,6 @@
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="G470" t="s">
         <v>4</v>
@@ -13360,7 +13042,6 @@
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="G471" t="s">
         <v>8</v>
@@ -13387,7 +13068,6 @@
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="G472" t="s">
         <v>10</v>
@@ -13414,7 +13094,6 @@
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="G473" t="s">
         <v>12</v>
@@ -13445,6 +13124,302 @@
         <v>108</v>
       </c>
       <c r="M474" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" s="4">
+        <v>143</v>
+      </c>
+      <c r="B475" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E475" s="4">
+        <v>1</v>
+      </c>
+      <c r="F475" s="4">
+        <v>0</v>
+      </c>
+      <c r="L475" t="str">
+        <f>CONCATENATE("db.tournaments.insert({_id: ",A475,",year: ",B475,",date: ISODate(""",C475,"""),details: {location: """,D475,""",tables: ",E475,",final: ",F475,"},results: [")</f>
+        <v>db.tournaments.insert({_id: 143,year: 2015,date: ISODate("2015-02-13"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+      <c r="M475" t="str">
+        <f>CONCATENATE("db.tournaments.update({_id: """,A475,"""},{$set: {year: ",B475,",date: ISODate(""",C475,"""),details: {location: """,D475,""",tables: ",E475,",final: ",F475,"},results: [")</f>
+        <v>db.tournaments.update({_id: "143"},{$set: {year: 2015,date: ISODate("2015-02-13"),details: {location: "Cantina",tables: 1,final: 0},results: [</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G476" t="s">
+        <v>13</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>625</v>
+      </c>
+      <c r="J476">
+        <v>50</v>
+      </c>
+      <c r="K476">
+        <v>5</v>
+      </c>
+      <c r="L476" t="str">
+        <f t="shared" ref="L476:L484" si="83">CONCATENATE("{ player_id: """,G476,""", pos: ",H476,", points: ",I476,", money: ",J476,", pay: ",K476,"},")</f>
+        <v>{ player_id: "Ben", pos: 1, points: 625, money: 50, pay: 5},</v>
+      </c>
+      <c r="M476" t="str">
+        <f t="shared" ref="M476:M484" si="84">CONCATENATE("{ player_id: """,G476,""", pos: ",H476,", points: ",I476,", money: ",J476,", pay: ",K476,"},")</f>
+        <v>{ player_id: "Ben", pos: 1, points: 625, money: 50, pay: 5},</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D477" s="1"/>
+      <c r="G477" t="s">
+        <v>6</v>
+      </c>
+      <c r="H477">
+        <v>2</v>
+      </c>
+      <c r="I477">
+        <v>312.5</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>5</v>
+      </c>
+      <c r="L477" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Rico", pos: 2, points: 312.5, money: 0, pay: 5},</v>
+      </c>
+      <c r="M477" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Rico", pos: 2, points: 312.5, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D478" s="1"/>
+      <c r="G478" t="s">
+        <v>8</v>
+      </c>
+      <c r="H478">
+        <v>3</v>
+      </c>
+      <c r="I478">
+        <v>208.31</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>5</v>
+      </c>
+      <c r="L478" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Cana", pos: 3, points: 208.31, money: 0, pay: 5},</v>
+      </c>
+      <c r="M478" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Cana", pos: 3, points: 208.31, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D479" s="1"/>
+      <c r="G479" t="s">
+        <v>2</v>
+      </c>
+      <c r="H479">
+        <v>4</v>
+      </c>
+      <c r="I479">
+        <v>156.25</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>5</v>
+      </c>
+      <c r="L479" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Tiga", pos: 4, points: 156.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M479" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Tiga", pos: 4, points: 156.25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D480" s="1"/>
+      <c r="G480" t="s">
+        <v>12</v>
+      </c>
+      <c r="H480">
+        <v>5</v>
+      </c>
+      <c r="I480">
+        <v>125</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>5</v>
+      </c>
+      <c r="L480" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Stecca", pos: 5, points: 125, money: 0, pay: 5},</v>
+      </c>
+      <c r="M480" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Stecca", pos: 5, points: 125, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="481" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D481" s="1"/>
+      <c r="G481" t="s">
+        <v>9</v>
+      </c>
+      <c r="H481">
+        <v>6</v>
+      </c>
+      <c r="I481">
+        <v>104.12</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>5</v>
+      </c>
+      <c r="L481" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Busca", pos: 6, points: 104.12, money: 0, pay: 5},</v>
+      </c>
+      <c r="M481" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Busca", pos: 6, points: 104.12, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="482" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D482" s="1"/>
+      <c r="G482" t="s">
+        <v>19</v>
+      </c>
+      <c r="H482">
+        <v>7</v>
+      </c>
+      <c r="I482">
+        <v>89.25</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>5</v>
+      </c>
+      <c r="L482" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Pipps", pos: 7, points: 89.25, money: 0, pay: 5},</v>
+      </c>
+      <c r="M482" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Pipps", pos: 7, points: 89.25, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="483" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D483" s="1"/>
+      <c r="G483" t="s">
+        <v>16</v>
+      </c>
+      <c r="H483">
+        <v>8</v>
+      </c>
+      <c r="I483">
+        <v>78.12</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>5</v>
+      </c>
+      <c r="L483" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Savello", pos: 8, points: 78.12, money: 0, pay: 5},</v>
+      </c>
+      <c r="M483" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Savello", pos: 8, points: 78.12, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="484" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D484" s="1"/>
+      <c r="G484" t="s">
+        <v>5</v>
+      </c>
+      <c r="H484">
+        <v>9</v>
+      </c>
+      <c r="I484">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>5</v>
+      </c>
+      <c r="L484" t="str">
+        <f t="shared" si="83"/>
+        <v>{ player_id: "Suarez", pos: 9, points: 69.43, money: 0, pay: 5},</v>
+      </c>
+      <c r="M484" t="str">
+        <f t="shared" si="84"/>
+        <v>{ player_id: "Suarez", pos: 9, points: 69.43, money: 0, pay: 5},</v>
+      </c>
+    </row>
+    <row r="485" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D485" s="1"/>
+      <c r="G485" t="s">
+        <v>4</v>
+      </c>
+      <c r="H485">
+        <v>10</v>
+      </c>
+      <c r="I485">
+        <v>62.5</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>5</v>
+      </c>
+      <c r="L485" t="str">
+        <f>CONCATENATE("{ player_id: """,G485,""", pos: ",H485,", points: ",I485,", money: ",J485,", pay: ",K485,"}")</f>
+        <v>{ player_id: "Ricci", pos: 10, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+      <c r="M485" t="str">
+        <f>CONCATENATE("{ player_id: """,G485,""", pos: ",H485,", points: ",I485,", money: ",J485,", pay: ",K485,"}")</f>
+        <v>{ player_id: "Ricci", pos: 10, points: 62.5, money: 0, pay: 5}</v>
+      </c>
+    </row>
+    <row r="486" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D486" s="1"/>
+      <c r="L486" t="s">
+        <v>108</v>
+      </c>
+      <c r="M486" t="s">
         <v>109</v>
       </c>
     </row>

--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="700" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="147">
   <si>
     <t>NickName</t>
   </si>
@@ -450,6 +451,12 @@
   </si>
   <si>
     <t>2015-02-13</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Tot Pay</t>
   </si>
 </sst>
 </file>
@@ -457,7 +464,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -495,8 +502,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,9 +1579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L475" sqref="L475:L486"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13427,4 +13434,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B3:B20)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>+$F$2/A3*10*1.25</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>+$F$2/A4*10*1.25</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>+$F$2/A5*10*1.25</f>
+        <v>166.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>+$F$2/A6*10*1.25</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>+$F$2/A7*10*1.25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>+$F$2/A8*10*1.25</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>+$F$2/A9*10*1.25</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>+$F$2/A10*10*1.25</f>
+        <v>62.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stuff/Reda Poker Tour.xlsx
+++ b/stuff/Reda Poker Tour.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="147">
   <si>
     <t>NickName</t>
   </si>
@@ -13438,10 +13438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13463,8 +13463,7 @@
         <v>146</v>
       </c>
       <c r="F2">
-        <f>SUM(B3:B20)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13475,8 +13474,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>+$F$2/A3*10*1.25</f>
-        <v>500</v>
+        <f>$F$3/A3*10*(1.25+$F$2/$F$3)</f>
+        <v>625</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13487,8 +13492,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>+$F$2/A4*10*1.25</f>
-        <v>250</v>
+        <f t="shared" ref="C4:C11" si="0">$F$3/A4*10*(1.25+$F$2/$F$3)</f>
+        <v>312.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -13499,8 +13504,8 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>+$F$2/A5*10*1.25</f>
-        <v>166.66666666666669</v>
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13511,8 +13516,8 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f>+$F$2/A6*10*1.25</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>156.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,8 +13528,8 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>+$F$2/A7*10*1.25</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13535,8 +13540,8 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f>+$F$2/A8*10*1.25</f>
-        <v>83.333333333333343</v>
+        <f t="shared" si="0"/>
+        <v>104.16666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -13547,8 +13552,8 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>+$F$2/A9*10*1.25</f>
-        <v>71.428571428571431</v>
+        <f t="shared" si="0"/>
+        <v>89.285714285714292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -13559,7 +13564,31 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f>+$F$2/A10*10*1.25</f>
+        <f t="shared" si="0"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>69.444444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f>$F$3/A12*10*(1.25+$F$2/$F$3)</f>
         <v>62.5</v>
       </c>
     </row>
